--- a/output/Total_time_range_data/内蒙古自治区/乌兰察布市_学习考察.xlsx
+++ b/output/Total_time_range_data/内蒙古自治区/乌兰察布市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,1182 +436,1295 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>33</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>乌兰察布市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>乌兰察布市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>张家口市考察团来我市考察学习</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-09-25</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>https://www.wulanchabu.gov.cn/swld/1404405.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['9月24日，在察哈尔高新技术开发区三峡现代能源创新示范园，张家口市考察团考察源网荷储技术研发及绿能乌兰察布建设情况。 唐璇博 摄', '9月24日，张家口市委书记赵文锋率张家口市考察团来我市考察学习，共叙两地友谊、共商交流合作、共谋协同发展。', '考察团先后到内蒙古京西农牧业科技发展公司、察右前旗南村现代农业产业园、薯都凯达食品有限公司、乌兰察布东阳光化成箔有限公司、华为云计算数据中心、三峡现代能源创新示范园、运达股份北方总部（乌兰察布）产业基地、宏福现代农业产业园等地，详细了解我市现代农牧业、新材料产业、大数据产业、新能源产业的发展情况，并给予高度评价。', '隋维钧对张家口市考察团一行的到来表示欢迎。他说，张家口市和乌兰察布市地缘相近、人文相亲、交往密切，两地的资源禀赋、产业基础、发展定位具有很高的协同性和互补性，双方的合作空间十分广阔。希望两地以此次考察为契机，加强互学互鉴，挖掘比较优势，深化交流合作，推动优势互补，不断开创合作发展、互利共赢新局面。', '赵文锋表示，此次考察学习，收获很大、深受启发，特别是乌兰察布市立足自身优势在推进乡村振兴，推动现代农牧业、新能源产业发展等方面总结出了很多好的经验做法，这些好经验好做法都非常值得张家口市学习借鉴。希望以此次考察学习为契机，进一步增进交流、深化合作、携手并进，共同谱写两地高质量发展新篇章。']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>33</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>乌兰察布市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>乌兰察布市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>市司法局赴巴彦淖尔市考察学习矛盾纠纷多元化解工作先进经验</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2020-09-07</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>https://www.wulanchabu.gov.cn/bmdt/25393.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['市司法局赴巴彦淖尔市考察学习矛盾纠纷多元化解工作先进经验 - 部门动态 - 乌兰察布市人民政府', '为深入推动我市矛盾纠纷多元化解工作，促进市多元矛盾纠纷调解中心的创新发展，9月4日至5日，市司法局党组成员、副局长高奇峰带领人民参与和促进法治科负责人组成考察学习组赴巴彦淖尔市考察学习矛盾纠纷多元化解先进工作经验。', '考察学习组听取巴彦淖尔市公共法律服务中心大厅、市医疗纠纷人民调解委员会驻市中心医院调解室及临河区人民调解中心工作开展情况简要介绍，详细了解巴彦淖尔市开展矛盾纠纷多元化解工作的先进做法和经验。双方人员通过召开交流座谈会，分别介绍了各地的工作开展情况，与会人员围绕如何做好新时代矛盾纠纷多元化解工作，推进建立高效协作的工作机制、运行制度、部门协调联动等方面问题进行了深入探讨交流。', '考察学习组一致认为，巴彦淖尔市有效整合资源，打通部门壁垒，构建深度融合功能为一体的实战化平台，做到线下有机制，线上有通道，多调有亮点，管理有办法，矛盾纠纷多元化解工作成效显著，非常值得借鉴学习。', '此次实地考察学习，听取介绍和查看资料，为今后加快推进乌兰察布市多元矛盾纠纷调解中心各项工作创新发展，提供了好的方法和经验，有助于把矛盾纠纷多元化解的各项工作做实、做细、做好，推动各项工作再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>33</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>乌兰察布市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>乌兰察布市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>阿拉善盟住建局考察学习我市城镇老旧小区改造工作</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2021-04-21</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>https://www.wulanchabu.gov.cn/bmdt/29076.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['阿拉善盟住建局考察学习我市城镇老旧小区改造工作 - 部门动态 - 乌兰察布市人民政府', '4月19日，阿拉善盟住建局副局长王斌带领考察组一行15人考察学习我市城镇老旧小区改造工作。', '考察团先后来到集宁区文化小区、自建小区、北官房小区、连馨苑小区，实地察看了老旧小区改造项目建设情况，听取了经验做法介绍。在下午召开的座谈会上，蒙占福副局长重点介绍了全市旧改工作总体推进情况，集宁区住建局相关负责人员就集宁区老旧小区改造项目生成、手续批办、统筹推进、资金筹集、居民参与、物业管理等方面工作作了经验介绍。双方就推进完善类提升类试点建设、加装电梯、改造后长效管理等方面工作进行了全面深入的交流和探讨。', '阿拉善盟住建局副局长王斌表示，近年来乌兰察布市城镇老旧小区改造成果显著，走在了自治区前列。此次考察学习开阔视野、受益匪浅、感触颇深，特别是对乌兰察布市老旧小区改造工作“三个转变”、“三个注重”“三个关键”等亮点工作印象深刻。在下一步工作中，将充分借鉴学习好乌兰察布市城镇老旧小区改造的好理念、好举措和好经验，结合工作实际大力推进老旧小区改造工作，切实把这项民生工程办成民心工程。']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>33</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>乌兰察布市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>乌兰察布市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>渠利生带队赴察右前旗考察学习</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-03-09</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>https://www.wulanchabu.gov.cn/qxdt/138288.html</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['“五大任务”，全力打造国家重要农畜产品生产基地。3月8日，察右后旗人民政府副旗长渠利生带队赴察右前旗考察学习农牧业产业工作。察右前旗人大常委会副主任姚志刚、副旗长崔志国、政府党组成员贾瑾，乡村振兴局和农牧科技局相关负责人陪同考察。察右后旗人大常委会副主任张登峰、政协副主席庞忠，农牧和科技局、林草局、产业扶贫开发服务公司、各苏木乡镇政府主要负责人及部分嘎查村支部书记、乡村振兴示范村支部书记、养殖户代表参加考察学习。', '考察团一行先后实地观摩了宏福现代农业产业园、蒙天然牧业科技公司、活畜交易市场、京西牧业和薯都凯达公司产业发展情况。每到一处，考察团都认真听取相关负责人的介绍，现场就推进现代农牧业发展、设施农业种植、奶绵羊养殖、肉牛养殖、活畜交易等内容进行了深入探讨和交流，并一致认为，察右前旗推进', '“麦菜薯、牛羊乳”等优势特色产业全产业链发展，打造全国重要绿色农畜产品生产基地的经验、做法、发展思路、发展模式及总体发展规划都值得大家学习借鉴。', '“奶薯牛羊”四大产业行动，深入开展农牧业产业示范创建和特色产业全产业链发展，提供了宝贵的经验和良好的示范。下一步，察右后旗将以此次考察学习为契机，对标找差距，创新谋突破，立足实际、积极推进农业农村各项重点工作，凝心聚力推动农牧业农村牧区现代化工作再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>33</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>乌兰察布市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>乌兰察布市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>市委书记隋维钧市委副书记市长奇飞云率市党政考察团赴呼和浩特市考察学习</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2021-12-14</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>https://www.wulanchabu.gov.cn/tpxw/44325.html</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['市委书记隋维钧，市委副书记、市长奇飞云率市党政考察团赴呼和浩特市考察学习 - 图片新闻 - 乌兰察布市人民政府', '12月13日，市委书记隋维钧，市委副书记、市长奇飞云率市党政考察团赴呼和浩特市考察学习，主动对接沟通，进一步推进呼包鄂乌一体化发展。自治区党委常委、呼和浩特市委书记包钢，呼和浩特市委副书记、市长、和林格尔新区党工委书记贺海东，市委常委、秘书长刘继英参加考察活动。市领导云鹏刚、李勇、奇·达楞太、刘国刚、柴悦参加考察活动。']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>33</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>乌兰察布市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>乌兰察布市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>我市代表团赴大同市考察</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-08-21</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>https://www.wulanchabu.gov.cn/zfld/1379459.html</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['8月19日，乌兰察布市代表团在京东物流（大同）客户服务中心，考察物流产业发展情况。 唐璇博 摄', '8月19日，市委书记隋维钧，市委副书记、市长奇飞云，市政协党组书记、主席白颢率我市代表团赴大同市考察学习重大科技成果转化、乡村振兴、文旅产业发展、经济技术开发区建设等，共叙两地友谊，共商交流合作，共谋两地高质量协同发展。', '代表团一行先后到大同高速飞车项目部、云州区唐家堡黄花基地、大同经济技术开发区创新展示厅、京东物流（大同）客户服务中心考察学习，还参观了大同市博物馆、古城。', '卢东亮对我市代表团的到来表示欢迎。他说，大同市与乌兰察布市地缘相近、人文相亲，交往密切、渊源深厚，特别是两地的资源禀赋、产业基础、发展定位具有很高的协同性和互补性，双方合作空间十分广阔，希望两市进一步深化交流合作，携手谱写高质量发展新篇章。', '隋维钧表示，大同市历史悠久、资源富集、区位优越，转型发展态势强劲，特别是在产业发展、乡村振兴等领域的经验做法，古城文化保护及文旅产业发展等方面的先进理念都非常值得我们学习借鉴。希望以此次考察学习为契机，立足两市资源禀赋和产业基础，充分挖掘各自比较优势，增进交流、互学互鉴、携手并进，不断开创合作发展、互利共赢的新局面。']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>33</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>乌兰察布市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>乌兰察布市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>费东斌率团赴云南大理考察学习洱海保护治理经验</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2019-05-24</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>https://www.wulanchabu.gov.cn/sthjzl/11475.html</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['费东斌率团赴云南大理考察学习洱海保护治理经验 - 生态环境质量 - 乌兰察布市人民政府', '为深入贯彻落实习近平总书记重要指示批示精神，精准推进岱海综合治理，5月22日至23日，市委副书记、市长费东斌带领市水利局、生态环境局及凉城县政府负责同志，赴大理考察学习洱海保护治理工作。', '考察团一行进展馆、看现场，与当地干部群众座谈交流，对大理州在洱海保护治理工作中采取的措施、取得的成效及下一步思路进行了深入细致的学习考察。在洱海科普教育中心，通过运用数字媒体、实体模型、主题展区等方式，了解洱海保护治理、生态建设以及城乡规划、历史文化名城保护；在洱滨村，考察洱海湖滨缓冲带生态廊道示范段建设情况；在大庄村，了解“三线”生态搬迁和大庄污水处理厂运行情况；在习近平总书记曾经考察过的湾桥镇古生村，考察组参观学习了美丽乡村建设、查看洱海水质状况，了解阳溪河道综合治理工作；在北三江永安江入湖口，考察湿地建设情况；在大建旁藻水分离站，考察洱海蓝藻防控情况；在双廊镇，考察污水处理、建筑环境整治、旅游转型升级等情况。', '座谈会上，大理州副州长吴云劼向考察组一行介绍了洱海治理保护的具体做法。他说，近年来，大理市认真贯彻落实习近平总书记系列重要讲话精神，按照“山水林田湖”综合治理思路，将洱海保护治理从一湖之治扩展到全流域治理，先后实施了“三退三还”“2333行动计划”“五整治”“六大工程”“七大行动”“八大攻坚战”等治理措施，洱海流域水生态环境综合治理取得了明显成效。', '费东斌在座谈中表示，洱海保护治理工作有许多好的措施和管理经验值得学习借鉴，乌兰察布要把这些行之有效的工作措施运用到岱海综合治理中。他要求，全市各级各部门要深入学习贯彻习近平生态文明思想，充分认识岱海保护治理的长期性艰巨性复杂性，进一步增强责任感、紧迫感，保持韧性和定力，稳扎稳打，久久为功，坚决把岱海治理好、保护好。要遵循科学规律，加快岱海水生态保护规划修编工作，以规划引领系统治理。要牢牢抓住截污治污这个关键，实现污水回收全覆盖，加大污水处理力度，持续消减入湖污染负荷。要加快种养业结构调整，有效防治面源污染。要加强组织领导，狠抓工作落实，严格按照时间节点推进，确保岱海水生态环境治理取得扎实成效。']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>33</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>乌兰察布市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>乌兰察布市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>费东斌率团赴赤峰市和通辽市考察学习</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2020-08-28</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>https://www.wulanchabu.gov.cn/jrwlcb/32275.html</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['8月25日至26日，市委书记、市长费东斌率党政考察团赴赤峰市、通辽市，就设施农业、高铁经济、商贸物流、高标准化农田、庭院经济、肉牛产业项目等进行考察，对照先进深刻思考，解放思想更新观念，为推动我市高质量发展积蓄力量。', '25日，考察团在赤峰市委副书记、市长王旺盛等陪同下，来到赤峰高铁站，详细了解高铁站周边发展规划，切身感受高铁经济与社会效益的有机融合。随后，考察团先后赴红山物流园区、利丰二手车交易市场、金融物流港三期项目考察现代物流业发展情况，对赤峰市集物流、商流、资金流、信息流“四流合一”的现代物流体系建设给予高度评价。费东斌表示，要认真学习借鉴赤峰市在现代物流业发展方面的经验，结合我市打造现代物流集疏中心，从夯实产业基础、打造创新平台入手，扎实做好枢纽经济这篇文章。在松山区公主岭现代农业产业园，考察团详细了解发展经验，构建营销网络、做好产业规划等成为考察团追问的热点。费东斌指出，发展设施农业是建设农畜产品生产加工基地的重要组成部分，要在产业规划、生产组织、产品营销方面多下功夫，集中集约集聚发展设施农业，形成强有力的综合竞争力。', '26日，考察团驱车前往通辽市，在通辽市委书记冯玉臻等陪同下，先后深入企业、基地、园区等进行实地观摩。在伊赛牛肉有限公司，详细了解了肉牛养殖、屠宰加工产业项目，对通辽市发展“种养加销”全产业链肉牛产业给予高度评价。在智慧农业观光驿站，考察团详细了解高标准农田项目实施、推进和发展规划等情况，实地察看水肥一体化井安装、作物长势等情况。在东风镇七家子村，考察团来到庭院经济示范户颜丙华家，只见满园翠色，果蔬品种十分丰富，大家详细了解庭院经济在助力脱贫攻坚、助推乡村振兴过程中的作用发挥情况。在科尔沁绿色食品加工园区，考察团走进净食安餐饮管理服务公司生产车间，详细了解了农副产品源头生产、净化加工、冷链配送到食堂餐桌的全食品类安全供应链新模式。费东斌表示，近年来，通辽市在发展现代农业方面迈出坚实步伐，各级各部门要结合我市实际，认真学习借鉴，进一步解放思想，扎实推动现代农业发展，要注重育龙头、促发展，强宣传、树品牌，发挥自身优势，找准着力点，培育我市经济发展新的增长点。', '通过一路考察学习，考察团成员一致表示，时间虽短，但感受很深，收获颇丰，一定要把看到的、学到的新理念、好做法融入到实际工作中，助推我市经济社会发展再谱新篇。']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>33</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>乌兰察布市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>乌兰察布市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>隋维钧带队赴成都绵阳北京开展招商引资活动并到贵阳贵安考察学习大数据产业发展</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2023-12-13</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>https://www.wulanchabu.gov.cn/swld/1454685.html</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['隋维钧带队赴成都、绵阳、北京开展招商引资活动并到贵阳贵安考察学习大数据产业发展 - 市委领导 - 乌兰察布市人民政府', '12月9日至12日，市委书记隋维钧带队赴成都、绵阳、北京开展招商引资活动，并赴贵阳贵安学习考察大数据产业发展。', '在四川航天拓鑫实业有限公司、绵阳科技城新区生态节能环保低碳产业技术研究院、聚利和集团股份有限公司，隋维钧与企业负责人围绕玄武岩纤维产品研发、生态环境综合治理、预制菜加工等进行深入交流。隋维钧说，玄武岩纤维性能优良、潜力巨大，可满足交通、建筑、环保等多领域的需要，应用前景十分广阔。研究院的水环境综合治理技术、生物酶改良土壤技术、抗风抑尘技术与乌兰察布推动岱海、察汗淖尔生态保护修复高度契合。希望企业家回故乡、建家乡、圆梦想，到乌兰察布市投资兴业，助力我们推动地区经济社会高质量发展。乌兰察布市委和政府将全心全意做好服务保障，全力支持企业发展壮大。企业负责人表示，将持续提升技术水平，积极探索新材料、新技术的应用场景，不断深化与乌兰察布市在新材料研发、生态环境综合治理、推进乡村振兴等方面的交流合作，推动地企双方实现互利共赢。', '隋维钧一行先后到贵阳大数据科创城、华为云数据中心、贵阳市城市运行管理中心考察学习，并与贵州省委常委、贵阳市委书记胡忠雄会见，与贵阳市委副书记、市长马宁宇座谈。隋维钧说，贵阳贵安数字经济产业生态好、产业架构好、发展态势好，发展成绩让人深感钦佩、深受启发。贵阳贵安与乌兰察布在促进数据产业发展上有很多互补之处，在推动数字经济发展上合作空间巨大。希望双方加强交流合作，在数据产业人才培养、场景应用等领域寻找更多契合点，共同抢抓“东数西算”的机遇，携手谱写数字经济高质量发展的新篇章。胡忠雄、马宁宇表示，乌兰察布市发展数字经济的理念、思路、举措都非常值得贵阳贵安学习借鉴，两地在数字经济发展方面合作空间十分广阔。希望双方强化互学互鉴、深化优势互补，不断拓展数字经济、文旅经济、开放经济等领域的务实合作，携手在数字经济新赛道上跑出好成绩、实现新突破。', '从贵阳考察学习后，隋维钧第一时间组织召开专题会议总结考察学习收获，扬优势、找差距，深入研究推动数据产业发展的举措，进一步明确了推动数字经济高质量发展的思路。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>33</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>乌兰察布市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>乌兰察布市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>市党政考察团赴呼和浩特市考察学习</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2021-12-14</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>https://www.wulanchabu.gov.cn/jrwlcb/44331.html</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['12月13日，我市党政考察团在呼和浩特市行政审批和政务服务局一楼服务大厅，考察交流优化营商环境工作。 唐璇博 摄', '为深入贯彻落实自治区第十一次党代会精神，12月13日，市委书记隋维钧，市委副书记、市长奇飞云率市党政考察团赴呼和浩特市考察学习，主动对接沟通，进一步推进呼包鄂乌一体化发展。', '自治区党委常委、呼和浩特市委书记包钢，呼和浩特市委副书记、市长、和林格尔新区党工委书记贺海东以及市委常委、秘书长刘继英参加考察活动。', '考察团一行首先来到呼和浩特市智慧城市指挥中心，观看了《智慧城市 数创未来》宣传片，从智慧城市建设历程、运行机制、应急指挥等方面听取了呼和浩特市智慧城市建设有关情况，认真了解了智慧综治、智慧停车、智慧文旅、智慧应急、智慧林草等智慧场景，并围绕社会综合治理工作机制、协同流程、信息平台构建等与呼和浩特市领导和相关部门负责人进行了深入交流。', '隋维钧指出，数字化指挥管理平台是城市的“大脑”，是提升城市治理能力现代化水平和城市精细化管理水平的重要平台。只有自身实现数字化更好应用，才能有效联通呼包鄂，深度融入一体化发展。要认真学习借鉴呼和浩特市智慧城市指挥中心、行政审批和政务服务局的创新经验做法，高标准高质量推进乌兰察布市智慧城市建设和“12345”政府服务热线平台建设，整合各方资源，尽快查漏补缺，进一步完善系统功能，确保两个平台尽快发挥作用，切实提升我市城市管理精细化水平和政务服务能力。要高度重视“12345”政府服务热线平台制度建设，完善“受理、交办、督办、反馈、考核、回访”的工作闭环，强化跟踪问效和督办考核，建立科学、高效、管用的常态长效机制，不断改进工作作风、提升服务效率。', '在呼和浩特市行政审批和政务服务局、接诉即办指挥调度中心，考察团一行听取了优化营商环境工作情况汇报，认真察看了政务服务中心环境布置和功能分区，以及深化“放管服”改革和“一次办好”改革中的创新做法。隋维钧表示，双方要进一步加强沟通和合作，不断提升政务服务工作的能力和水平，不断提高企业和群众办事的满意度和获得感。']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>33</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>乌兰察布市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>乌兰察布市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>我市代表团赴大同市考察</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2023-08-22</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>https://www.wulanchabu.gov.cn/tpxw/1379755.html</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['8月19日，市委书记隋维钧，市委副书记、市长奇飞云，市政协党组书记、主席白颢率我市代表团赴大同市考察学习重大科技成果转化、乡村振兴、文旅产业发展、经济技术开发区建设等，共叙两地友谊，共商交流合作，共谋两地高质量协同发展。', '代表团一行先后到大同高速飞车项目部、云州区唐家堡黄花基地、大同经济技术开发区创新展示厅、京东物流（大同）客户服务中心考察学习，还参观了大同市博物馆、古城。', '卢东亮对我市代表团的到来表示欢迎。他说，大同市与乌兰察布市地缘相近、人文相亲，交往密切、渊源深厚，特别是两地的资源禀赋、产业基础、发展定位具有很高的协同性和互补性，双方合作空间十分广阔，希望两市进一步深化交流合作，携手谱写高质量发展新篇章。', '隋维钧表示，大同市历史悠久、资源富集、区位优越，转型发展态势强劲，特别是在产业发展、乡村振兴等领域的经验做法，古城文化保护及文旅产业发展等方面的先进理念都非常值得我们学习借鉴。希望以此次考察学习为契机，立足两市资源禀赋和产业基础，充分挖掘各自比较优势，增进交流、互学互鉴、携手并进，不断开创合作发展、互利共赢的新局面。']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>33</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>乌兰察布市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>乌兰察布市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>市供销社考察组赴兴安盟供销社考察学习</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2020-07-29</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>https://www.wulanchabu.gov.cn/bmdt/27345.html</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['7月21日至7月25日，市供销社副调研员张长青一行赴兴安盟供销社实地考察，调研农资供应联盟、电子商务、基层组织体系建设等方面的典型经验。', '考察组先后深入兴安盟科右前旗鑫丰农资公司、科右前旗农垦生资有限公司、科右前旗优质农产品（电商）协会、乌兰浩特市北雁米业有限公司、乌兰浩特巨霖肥业有限公司、乌市蒙营农民专业合作社联合社学习农资联盟运营模式、农资和电商企业经营机制和服务方式及专业合作社联合社受益情况等。', '交流座谈会上，兴安盟供销社副主任顾玉莹详细介绍了农资供应联盟基本情况、运营模式、取得的成效，并对供销社综合改革、基层服务网络体系建设、完善“三会制度”建设、培育壮大社有企业等工作进行了探讨交流。', '调研组一致认为，兴安盟党委政府高度重视供销社工作，有力的推动了农资供应联盟的运行，基层服务网络尤其是专业合作社与盟社联结机制健全，组织合作紧密度高。调研组指出，兴安盟供销社农资供应联盟发展思路清晰，推进举措实，成效显著，积累了不少好的经验和做法，值得我们借鉴学习。此次考察非常成功、收获颇多，为乌兰察布市供销社探索组建“农资服务联盟”提供了可借鉴的经验及参考方案。市供销社将因地制宜的整合系统资源和社会力量，为农资经营企业、基层社、专业合作社等组织牵线搭桥，组建成立农资服务联盟，加强农资产品质量保障，减少农资流通环节，促进农业稳定发展和农牧民持续增收，为实施乡村振兴战略奠定坚实基础。']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>33</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>乌兰察布市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>乌兰察布市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>奇飞云带队赴长三角地区考察招商</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2021-12-18</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>https://www.wulanchabu.gov.cn/swld/42564.html</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['12月14日-16日，市委副书记、市长奇飞云带队赴江苏、浙江开展招商引资项目对接和考察学习活动。', '智慧城市、智慧园区建设是未来发展的必然选择。奇飞云一行先后到苏州工业园区智慧城市运行管理中心、苏州工业园区规划展示中心等地考察学习智慧园区建设和工业园区规划。考察团成员边听边思考，不时与相关负责人进行交流探讨。', '奇飞云指出，苏州坚持创新驱动发展，智慧城市和智慧园区建设走在全国前列，为各地提供了可复制可推广的城市精细化管理模式。乌兰察布要充分借鉴学习苏州等先进地区的宝贵经验，结合实际，加快打造智慧城市和智慧园区，全面提升城市治理现代化水平和园区管理水平。', '在远景、运达等公司产业基地，奇飞云一行参观了企业生产流水线，详细了解生产运行模式。她指出，乌兰察布区位优越、交通便利、资源富集，希望有关企业发挥引领带动作用，紧紧围绕我市主导产业，加大以商招商力度，构建全产业链发展模式，加快建设绿色低碳产业园，坚定不移走高质量发展新路子。各职能部门要聚焦企业和群众办事的堵点难点痛点，强化全要素保障，全力打造一流的营商环境，让乌兰察布成为投资兴业的环境宝地、生活佳地、开放高地。', '考察期间，市政府与运达公司签订了深度合作框架协议，并与产业链相关企业签订了合作备忘录。据悉，签约的供应链企业年产值超20亿，未来运达公司将在乌兰察布投资年产值超200亿的新能源装备制造全产业链，把乌兰察布打造成为全国新能源装备制造高地。']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>33</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>乌兰察布市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>乌兰察布市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>锡林郭勒盟退役军人事务局一行赴乌兰察布市军供站考察学习</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2021-03-31</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>https://www.wulanchabu.gov.cn/gfjyhsyxczl/29508.html</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['锡林郭勒盟退役军人事务局一行赴乌兰察布市军供站考察学习 - 国防教育和双拥宣传专栏 - 乌兰察布市人民政府', '3月31日上午，锡林郭勒盟退役军人事务局一行人到乌兰察布市军供站学习考察，交流军供站建设情况。', '在交流座谈会上，军供站站长张敏分别介绍了军供站运行基本情况、基础设施建设、军供应急保障等方面的情况，双方进行了深入的探讨和交流；随后，学习考察组一行实地参观了乌兰察布市军供站办公场所、军供保障设施设备、活动场地以及厨房、军供保障大厅、住宿场所等基础设施建设情况。学习考察组对乌兰察布市军供站一直以来为部队提供的温馨优质服务和精准高效的保障能力给予充分肯定，双方还就新形势下军供保障工作的可持续推进，以及具体任务的保障事宜进行了交流沟通。', '下一步，双方将进一步加强沟通交流、学习借鉴，建立起优势互补、资源共享的跨区合作机制，共同为国家的国防建设、军队后勤建设和双拥工作贡献力量。']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>33</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>乌兰察布市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>乌兰察布市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>市领导带队赴北京市延庆区考察学习特色民宿</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2021-04-06</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>https://www.wulanchabu.gov.cn/jrwlcb/31712.html</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['市领导带队赴北京市延庆区考察学习特色民宿 - 今日乌兰察布 - 乌兰察布市人民政府', '3月29日、30日，市委常委、副市长李勇带队赴北京市延庆区，围绕民宿产业、全域旅游发展等内容进行实地考察，并与延庆区领导座谈。延庆区委副书记、区长于波，副区长任江浩参加。', '我市与延庆区始终保持着深厚的人缘、地缘、业缘友谊。经济社会的持续发展和基础设施的不断完善，也让两地形成了更加紧密的交通、经济、产业联结。3月29日、30日，李勇一行到八达岭镇石峡村石光长城精品民宿、康庄镇火烧营村荷府精品民宿、自游自在汽车文化主题民宿等地，考察延庆区民宿产业、景区文旅商融合发展等情况。', '李勇对延庆区长期以来给予乌兰察布市的关怀和支持表示感谢。他说，乌兰察布市与延庆区在自然生态、旅游资源等方面有许多相似之处，学习借鉴延庆区在精品民宿、全域旅游发展等方面的好经验、好做法，对促进乌兰察布市产业发展具有重要指导意义，希望两地能进一步深化交流，促进合作。', '延庆区委副书记、区长于波对李勇一行的到来表示欢迎。他说，希望未来，两地能持续深化合作，延庆区将积极主动加强与乌兰察布市的沟通交流，在文化旅游、民宿产业发展、京张体育文化旅游带建设等方面探索协同发展路径，互学互鉴、互促互进，推动两地合作发展再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>33</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>乌兰察布市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>乌兰察布市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>国家级非遗项目威风锣鼓扎根兴和县</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2021-12-11</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>https://www.wulanchabu.gov.cn/qxdt/42910.html</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['威风锣鼓被誉为“天下第一鼓”，威风锣鼓队是中国特有的优秀传统民族文化，它活跃在我国山西省黄河流域一带，相传有四千年的发展历史，到今天，威风锣鼓已经成为民间喜闻乐见的一种文化娱乐活动。', '为进一步丰富群众文化生活，加强传统文化传承和对外文化交流互动，使广大群众有更大的获得感和幸福感，兴和县专程前往发源地山西省临汾市考察学习并组建威风锣鼓队，并在后期组织广大队员进行了实地培训。', '自开班以来，来自全县范围内的80多名威风锣鼓队精心排练队形、刻苦学习鼓谱，紧锣密鼓地进行排练。经过山西临汾的导师从队形变换、击打方式、节奏把握等方面的专业指导，锣鼓队的表演已经颇具雏形。', '据了解，兴和县威风锣鼓队将于2022年春节期间正式搬上舞台与群众见面，届时将成为兴和县一道靓丽的风景线，为兴和县群众文化生活增添光彩。']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>33</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>乌兰察布市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>乌兰察布市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>市四届人大常委会第三十七次主任会议召开</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2020-07-15</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>https://www.wulanchabu.gov.cn/jrwlcb/23862.html</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['7月13日，市人大常委会主任徐志明主持召开乌兰察布市第四届人民代表大会常务委员会第三十七次主任会议。', '会议听取了关于提请人事任免事项的议案；听取了《关于全市道路交通安全管理工作情况的调研报告》；听取了关于《内蒙古自治区蒙医药中医药条例》执法检查“回头看”开展情况的汇报，以及赴鄂尔多斯市、通辽市、赤峰市考察学习《内蒙古自治区蒙医药中医药条例》贯彻落实情况的报告；听取了《关于全市土壤污染防治情况的调研报告》；听取了《关于全市脱贫攻坚及有效衔接乡村振兴战略情况的调研报告》；听取了关于《中华人民共和国野生动物保护法》等“两法一决定一办法”执法检查情况的报告；听取了关于部分自治区人大代表向常委会作述职报告的安排；听取了关于自治区、市个别代表辞去代表职务的汇报；听取了关于对《乌兰察布市人民代表大会及其常务委员会立法工作规程》等八项工作制度修订情况的说明；听取了关于《中华人民共和国工会法》执法检查情况的报告；听取了关于乌兰察布市四届人大常委会部分委员分工调整的说明；确定了乌兰察布市四届人大常委会第十九次会议建议议程、召开时间。']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>33</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>乌兰察布市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>乌兰察布市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>全区唯一一座环保型建筑垃圾消纳场建成</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2022-01-13</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>https://www.wulanchabu.gov.cn/qxdt/45529.html</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['近日，凉城县鸿茅镇建筑垃圾消纳场建设工程完成全部建设任务。该建筑垃圾消纳场总投资2076万元，建成总库容量50万立方米，平均日处理垃圾137立方米，使用年限为10年。工程完全按照环保建设要求，库区全部铺设防渗设施，可有效处置因城市建设所产生的大量建筑垃圾，减少垃圾污染、改善人居环境，对恢复岱海流域生态环境具有十分重要的意义。', '总投资2076万元，建成总库容量50万立方米，平均日处理垃圾137立方米，使用年限为10年。工程完全按照环保建设要求，库区全部铺设防渗设施，可有效处置因城市建设所产生的大量建筑垃圾，减少垃圾污染、改善人居环境，对恢复岱海流域生态环境具有十分重要的意义。', '据了解，该垃圾消纳场是全区唯一一座环保型建筑垃圾消纳场，已有多个盟市前来考察学习建设经验。下一步，凉城县将严格按照《城市建筑垃圾管理规定》要求，建立健全建筑垃圾处置收费管理制度，安全处置建筑垃圾。', '下一步，凉城县将严格按照《城市建筑垃圾管理规定》要求，建立健全建筑垃圾处置收费管理制度，安全处置建筑垃圾。']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>33</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>乌兰察布市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>乌兰察布市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>全区唯一一座环保型建筑垃圾消纳场在凉城县建成</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2022-01-14</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>https://www.wulanchabu.gov.cn/sthjzl/41508.html</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['全区唯一一座环保型建筑垃圾消纳场在凉城县建成 - 生态环境质量 - 乌兰察布市人民政府', '近日，凉城县鸿茅镇建筑垃圾消纳场建设工程完成全部建设任务。该建筑垃圾消纳场总投资2076万元，建成总库容量50万立方米，平均日处理垃圾137立方米，使用年限为10年。工程完全按照环保建设要求，库区全部铺设防渗设施，可有效处置因城市建设所产生的大量建筑垃圾，减少垃圾污染、改善人居环境，对恢复岱海流域生态环境具有十分重要的意义。', '据了解，该垃圾消纳场是全区唯一一座环保型建筑垃圾消纳场，已有多个盟市前来考察学习建设经验。下一步，凉城县将严格按照《城市建筑垃圾管理规定》要求，建立健全建筑垃圾处置收费管理制度，安全处置建筑垃圾。']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>33</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>乌兰察布市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>乌兰察布市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>我市赴巴彦淖尔市考察棚改工作</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2020-04-21</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>https://www.wulanchabu.gov.cn/bmdt/20229.html</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['为深入践行习近平总书记以人民为中心的发展思想，全力做好棚户区改造这项民生工作，塑造城市新的品位形象，着力改善百姓生活质量，4月17日，由乌兰察布市政府副秘书长赵建平带队，市住建局及4个旗县市区棚改相关负责人一行13人赴巴彦淖尔市临河区学习考察棚户区非成套住房改造工作。', '考察团一行先后深入巴彦淖尔市临河区花都平房社区、金都华庭平房社区及五一一地质队平房区等地考察学习，认真了解了临河区平房区综合整治棚户区改造项目的具体改造内容、改造标段及建设内容。', '参观结束后，考察团与临河区相关领导进行了经验交流，认真听取了临河区棚户区非成套住房改造工作情况介绍。特别是非成套住宅综合改造“10+N”的改造思路，“10”就是“十个必做”（厨房、卫生间、给排水管网、供暖管网、巷道硬化、人行道铺设、路灯安装、绿化、拆除私搭乱接、清理垃圾废土等十个方面必做），“N”就是根据现状和群众需求确定选做内容。考察团表示，乌兰察布市要认真学习巴彦淖尔市棚户区非成套改造工作中的好方法，积极借鉴巴彦淖尔市的成功经验，下大力气实施好棚户区改造这项惠民工程，确保棚改工作有序有效推进。']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>33</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>乌兰察布市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>乌兰察布市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>市四届人大常委会第五十七次主任会议召开</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2021-08-25</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>https://www.wulanchabu.gov.cn/jrwlcb/38172.html</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['会议听取了关于人事任免事项的议案，听取了市人民政府关于2020年市本级决算（草案）的报告、市人民政府关于2021年市本级预算调整事项的报告、市人民政府关于2020年预算执行和其他财政收支的审计工作报告、市人民政府对《关于&lt;乌兰察布市水资源保护条例&gt;实施情况的报告》审议意见落实情况的报告、市人民政府对《关于&lt;中华人民共和国野生动物保护法&gt;等“两法一决定一办法”执法检查情况的报告》审议意见落实情况的报告、关于全市牧区草原生态保护情况的调研报告、关于民事调解工作情况的调研报告、关于赴甘肃省考察学习文物保护利用工作和《中华人民共和国文物保护法》的贯彻落实及监督检查情况的报告、关于全市开展历史文化保护和提升旅游产品文化内涵工作情况的调研报告、关于全市2021年国民经济和社会发展计划上半年执行情况的调研报告、关于全市2021年预算上半年执行情况的调研报告、关于全市贯彻实施《中华人民共和国城乡规划法》情况的调研报告、关于补选内蒙古自治区第十三届人民代表大会个别代表的说明，讨论确定了乌兰察布市四届人大常委会第三十次会议建议议程、召开时间。']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>33</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>乌兰察布市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>乌兰察布市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>奇飞云率团赴九江市无锡市常州市学习考察</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2022-03-14</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>https://www.wulanchabu.gov.cn/jrwlcb/43132.html</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['3月9日至11日，市委副书记、市长奇飞云率市直有关部门组成考察团，赴江西省九江市、江苏省无锡市和常州市考察，学习借鉴职业教育发展、科教园区建设和产教融合等方面的经验和做法，推动我市职业教育高质量发展。', '市领导乔允利、李勇、敖满斌参加学习考察活动，九江市委副书记、市长杨文斌，市委常委、组织部长刘瑞英，无锡市委常委、组织部长柏长岭，常州市委常委、组织部长季培东出席相关活动。', '在九江市共青城市，考察团实地考察了武汉纺织大学共青城纺织服装产业研究院及鸭鸭产业园、科教城、大学生创业园、人力资源产业园、基金小镇等项目，详细了解共青城科教园区建设和产教融合工作有关情况。', '在随后召开的座谈会上，奇飞云介绍了乌兰察布市经济社会发展情况。她说，通过这次实地学习考察，深入了解了九江这座充满历史沉淀和深厚文化背景的城市，学到了创办职教园区的宝贵经验。乌兰察布市将把九江市和共青城市的好经验、好办法带回去，立足自身发展实际，充分发挥区位优势，加快补齐短板弱项，加强机制建设、平台搭建、产教融合服务等工作，大力推进职业教育发展，着力打造面向京津冀的职教园区办学基地。也希望九江市和共青城市在职业教育发展方面继续给予我市指导，在校校合作、校企合作、校地合作等方面结出更多硕果。', '刘瑞英表示，希望两地继续加强沟通交流，探索创新模式，在职教园区建设、产教融合、校企合作、职教师资培训、学生实训等方面深入合作，实现互惠共赢、携手发展。', '在江苏省无锡市和常州市，考察团实地考察了江南影视艺术职业学院惠山泥人艺术实践工坊、无锡技师学院智能制造产业发展实训基地，以及常州纺织学院、现代工业中心，详细了解职教园区建设情况，并分别召开了座谈会。']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>33</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>乌兰察布市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>乌兰察布市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>隋维钧带队赴北京对接京蒙协作和中央单位定点帮扶工作</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2023-08-11</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>https://www.wulanchabu.gov.cn/jrwlcb/1376033.html</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['隋维钧带队赴北京对接京蒙协作和中央单位定点帮扶工作 - 今日乌兰察布 - 乌兰察布市人民政府', '为深入贯彻落实北京市·内蒙古自治区东西部协作工作座谈会、中央和国家机关定点帮扶工作推进暨培训交流会精神，8月7日至8日，市委书记隋维钧带队赴北京进行深入对接。', '在与全国社会保障基金理事会党组书记丁学东会谈时，隋维钧说，乌兰察布市将进一步完善工作机制，加强沟通对接，全力配合做好帮扶工作。丁学东表示，将一如既往做好定点帮扶工作，积极协调企业到乌兰察布市投资兴业，并与结对县共同巩固好脱贫攻坚成果，推进乡村振兴。', '在与北京市商务局党组书记、局长丁勇会谈时，隋维钧说，乌兰察布市将坚决落实深化京蒙协作的政治责任，全力推动绿色农畜产品、绿色能源、绿色算力“三绿进京”，持续推进京蒙协作走深走实。丁勇表示，商务局将积极为乌兰察布市冷凉蔬菜进京和电商直播培训牵线搭桥，助推当地绿色农畜产品提升附加值、卖出好价钱。', '在与北京市农林科学院党组书记吴宝新、院长李成贵交流时，隋维钧说，乌兰察布市将深化院地合作，共建科技创新平台和科技研发团队，努力推动双方协同发展、互利共赢。吴宝新、李成贵表示，将与乌兰察布市签订框架合作协议，充分发挥农林科学院科技优势、人才优势，全力帮助乌兰察布市推动“麦菜薯、牛羊乳”等优势产业做大做强。', '隋维钧一行还到北京市朝阳区现场观摩市域社会治理工作，考察学习多元化解矛盾纠纷、高效便捷服务群众的做法经验。']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>33</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>乌兰察布市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>乌兰察布市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>化德县深化东西部协作实现高质量发展</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2023-02-24</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>https://www.wulanchabu.gov.cn/qxdt/137388.html</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['去年以来，化德县持续抢抓东西部协作机遇，深入开展教育、医疗“组团式”帮扶，通过党政领导互访、专业技术人才交流、党政人才培训、企业人才带动等方式，促进资金支持、项目建设、消费帮扶等取得新成效，为全面推进乡村振兴、实现高质量发展提供有力的人才支持。', '一是强化统筹谋划，干部挂职互访谋发展。把东西部协作与巩固拓展脱贫攻坚成果同乡村振兴有效衔接、推动高质量发展一体谋划、一体推进。北京市东城区选派2名党政干部在化德挂任县委常委、县政府副县长，化德县选派3名科级以上干部赴北京市东城区挂职。化德县与北京市东城区两地党政主要领导互访3次，党政领导班子副职开展各类互访对接活动20余次，先后召开县委常委会、县政府常务委员会、领导小组会等20余次，研究推进协作帮扶，签约引进合作项目10个。', '二是突出重点领域，专业人才交流强素质。充分发挥北京市在教育、医疗等方面的资源优势，积极促进两地开展专业技术人才交流。北京市选派教育卫生领域专业技术人才来化德县开展为期1个月至1年的组团帮扶，通过专题讲座、演示教学、技术示范等多种形式开展技术帮带、人才培训；化德县选派18名优秀教师、23名优秀医疗卫生人才赴北京市参加1个月以上的跟岗学习，选派30余名校（园）长、骨干教师和20名医疗卫生人才赴北京市东城区、房山区开展为期1周的考察学习；北京市帮扶化德县相关学校，常态化开展特色教学活动和人才交流。', '三是围绕服务大局，党政人才培训拓眼界。在北京举办化德县党政干部能力提升经济管理、项目建设、党建引领高质量发展等专题培训班2期，培训党政干部307人次；从乡镇、县直单位、国有企业等不同层面选派20名优秀年轻干部到北京市党政机关、街道社区、企业和有关经济组织开展为期3个月的体悟实训，学习借鉴北京市城市建设、工业经济、项目建设、乡村振兴等领域的先进经验和典型做法，有效提升全县关键领域党政干部的思维能力、工作水平。']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>33</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>乌兰察布市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>乌兰察布市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>我市城镇燃气安全管理与排查整治工作的举措和成效</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2021-11-26</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>https://www.wulanchabu.gov.cn/bmdt/39503.html</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['我市城镇燃气安全管理与排查整治工作的举措和成效 - 部门动态 - 乌兰察布市人民政府', '2021年以来，市住建局多措并举不断强化城镇燃气安全管理，通过多次开展全市城镇燃气安全隐患排查整治，消除各类燃气安全隐患，切实保障我市人民群众生命和财产安全。', '在城镇燃气安全管理方面，一是有安排有部署，2021年，市住建局共计召开6次燃气安全管理会议，并与各旗县市区住建局签订《2021年度城镇燃气安全生产目标责任状》，层层压紧压实各地监管部门的安全管理责任，切实将城镇燃气安全管理责任落实到位；二是采取“走出去、请进来”方式，组织我市城燃企业赴呼市燃气热力有限公司及合肥市城乡建设局考察学习燃气安全监测预警平台建设和运行方面好的经验和做法，同时聘请北京燃气专家对全市11个旗县市区的燃气企业及站点进行全面检查和集中培训。通过考察学习和检查培训，切实提高了我市城镇燃气安全监管水平。', '在城镇燃气安全隐患排查整治方面，2021年，市住建局按照各级文件要求，先后组织开展了“元旦”“春节”“全国两会”“五一”“6.13湖北十堰燃气事故”“七一建党一百周年”等7次城镇燃气安全督导检查，共计检查11个旗县市区的129座/次燃气站点，其中天然气城网22座/次，加气站80座/次、液化石油气储配站27座/次。共发现安全隐患205项，下达限期整改督查通知书44份，提出各项整改意见165条。截至目前，历次督导检查所发现的安全隐患已全部整改完毕。通过全流程、闭环式安全督导检查，切实保障了我市城镇燃气安全平稳运行。']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>33</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>乌兰察布市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>乌兰察布市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>乌兰察布市政府办公室赴包头市政府办公室考察学习改作风提效能专项行动开展情况</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2023-04-18</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>https://www.wulanchabu.gov.cn/gzftxnzxxdzl/625741.html</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['乌兰察布市政府办公室赴包头市政府办公室 考察学习“改作风、提效能”专项行动开展情况 - 改作风、提效能专项行动 专栏 - 乌兰察布市人民政府', '乌兰察布市政府办公室赴包头市政府办公室 考察学习“改作风、提效能”专项行动开展情况', '按照自治区政府办公厅“改作风、提效能”专项行动安排部署，为对标先进、取长补短，4月11日，乌兰察布市政府办公室分管负责同志带领秘书一科、综合科、会议科部分同志赴包头市政府办公室进行学习交流，实地学习先进经验、思路、理念。', '座谈会上，包头市政府办公室魏海强副主任及相关科室负责人，紧紧围绕“改作风、提效能”各项工作要求，介绍了包头市政府办公室强化统筹调度，建立参谋工作机制；突出提质增效，健全“六大工作规范”；全面加强自身建设，开展“十大专项行动”等方面建立的规范、优化的措施、取得的成效等。', '座谈会后，各科室先后详细学习了“大办文”“大办会”“大综合”“大服务”工作制度及具体流程；“包头市政府作战指挥参谋部”和“三个参谋室”的运行机制，包头市政府挂图作战指挥调度平台功能设置和作用；“5643112”工作模式；“十大专项行动”开展情况。', '通过本次业务交流学习，达到了深化友谊、互相促进、共同进步的目的，下一步，乌兰察布市政府办公室将以此次学习交流为契机，持续加强顶层设计、创新工作思路、总结提炼做法，制定工作总则，规范系统管理，不断提升政府办公室综合业务能力和服务水平。']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>33</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>乌兰察布市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>乌兰察布市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>化德县深化东西部协作赋能高质量追赶发展</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2023-02-02</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>https://www.wulanchabu.gov.cn/qxdt/135795.html</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['化德县深化东西部协作 赋能高质量追赶发展 - 旗县市区动态 - 乌兰察布市人民政府', '化德县持续抢抓东西部协作机遇，深入开展教育、医疗“组团式”帮扶,通过党政领导互访、专业技术人才交流、党政人才培训、企业人才带动等方式，促进资金支持、项目建设、消费帮扶等取得新成效，为全面推进乡村振兴、实现高质量追赶发展提供有力的人才支持。', '一是强化统筹谋划，干部挂职互访谋发展。把东西部协作与巩固拓展脱贫攻坚成果同乡村振兴有效衔接、推动高质量追赶发展一体谋划、一体推进。北京市东城区选派2名党政干部在化德挂任县委常委、县政府副县长，2021年化德县赴北京市东城区挂职的3名科级以上干部已圆满完成工作任务，2022年挂职的3名科级以上干部即将赴北京市东城区。化德县与北京市东城区两地党政主要领导互访3次，党政领导班子副职开展各类互访对接活动20余次，先后召开县委常委会、县政府常务委员会、领导小组会等20余次，研究推进协作帮扶，签约引进合作项目10个。', '二是突出重点领域，专业人才交流强素质。充分发挥北京市在教育、医疗等方面的资源优势，积极促进两地开展专业技术人才交流。北京市选派教育卫生领域专业技术人才来化德县开展为期1个月至1年的组团帮扶，通过专题讲座、演示教学、技术示范等多种形式开展技术帮带、人才培训；化德县选派18名优秀教师、23名优秀医疗卫生人才赴北京市参加1个月以上的跟岗学习，选派30余名校（园）长、骨干教师和20名医疗卫生人才赴北京市东城区、房山区开展为期1周的考察学习。北京市帮扶化德县相关学校，常态化开展特色教学活动和人才交流。', '三是围绕服务大局，党政人才培训拓眼界。在北京举办化德县党政干部能力提升经济管理、项目建设、党建引领高质量发展等专题培训班2期，培训党政干部307人次；从乡镇、县直单位、国有企业等不同层面选派20名优秀年轻干部，到北京市党政机关、街道社区、企业和有关经济组织开展为期3个月的体悟实训，学习借鉴北京市城市建设、工业经济、项目建设、乡村振兴等领域的先进经验和典型做法，有效提升全县关键领域党政干部的思维能力、工作水平，切实解决眼界不宽、思路不活、能力不足、方法不优等“本领恐慌”难题。']</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>33</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>乌兰察布市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>乌兰察布市</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>一枚印章一个窗口阳光服务温暖群众</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2022-06-23</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>https://www.wulanchabu.gov.cn/tpxw/48207.html</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['党的十八大以来，以习近平同志为核心的党中央高度重视优化营商环境，各地各有关部门持续推进“放管服”改革，加快转变政府职能，助力高质量发展。', '在乌兰察布，以不断深化简政放权，提升行政审批效率与服务水平为引领的相对集中行政许可权改革正在持续推进。随着改革任务的走深走实，改革试点成效已逐步显现，全市行政审批和政务服务效能显著提升，市域营商环境持续优化，一系列改革举措有力地激发了各类市场主体活力。', '近日，记者走进这项改革的主管部门市委编办及改革试点旗县察右前旗和化德县，感受这种办事从繁、慢、难，到简、捷、易的效率提升。', '相对集中行政许可权改革是深化“放管服”改革、互联网+政务服务、优化营商环境三位一体部署要求的重要举措。', '作为改革的主管部门，市委编办多次组织相关部门外出考察学习，深入广泛调研，结合本地实际，确定改革试点，在机构挂牌规范、机构设置运行、职能职责调整、人员转隶分工、审批服务事项承接等方面进行全程指导，并及时协调解决改革过程中的困难和问题，确保改革工作顺利进行。', '2020年12月2日、3日，全市首批、自治区第二批相对集中行政许可权改革试点旗县，察右前旗行政审批和政务服务局、化德县行政审批和政务服务局分别正式挂牌运行，成为全市推行相对集中行政许可权改革的“先锋”。', '按照“撤一设一”原则，察右前旗和化德县率先整合原有行政审批职能，将政务服务局更名为“行政审批和政务服务局”，将企业和群众办理频率高且适于集中办理的审批事项，全链条划转至行政审批和政务服务局，截至目前，两地分别划转20个部门的290项和14个部门的149项行政审批事项。', '“试点改革打破了原有的多部门、分散化行政审批体制，将各部门的行政审批权力合而为一，其职能定位更加清晰、审批权限更加集中，有效解决了审批领域诸多部门各自为政的问题，使审批效能得到显著提升，构建起‘一枚印章管审批’的新模式。”化德县行政审批和政务服务局局长张哲对相对集中行政许可权改革进行了解释。', '“我是来办理执照换章业务的，整个办理流程和手续非常简单便捷，工作人员的服务态度也好，这种快速、优质的服务正是我们企业期盼的。”马占琴是内蒙古聚点环保餐具有限公司财务负责人，公司近期在中国招标采购网上进行电子执照审批备案时，由于原有营业执照发证机构公章模糊，导致申请被驳回，因此企业急需办理增减补换照业务。', '和马占琴有同感的还有内蒙古顺邦汽车零部件制造有限责任公司张志猛，“因为经营项目变更，需要重新办理营业执照，我提前从网上查询了需要哪些材料，到窗口后一会儿就办完了，高效的办理流程为我节省了不少时间。”在察右前旗政务服务大厅，拿着新营业执照的张志猛开心地说。', '“一枚印章管审批”的改革新模式使行政审批服务更优质高效，信息沟通更及时，实现了受理事项“数据多跑路，群众少跑腿”，极大地推动了政务服务便民最大化。', '“免费刻送的五枚公章，让我省了1000多元钱，一窗通办，半天之内就能拿到证。”在察右前旗政务服务大厅，申请注册乳业公司的企业主马荣亭高兴地说。', '除了为办事企业最大限度节省开支，提供免费制作、免费邮寄、免费复印证件或材料等服务外，察右前旗政务服务中心还为入驻企业和重大建设项目提供“一站式”“保姆式”服务，将受理、核准等环节整合为一个环节，实现“审核合一、一窗通办”，目前企业开办时间缩短至半个工作日。', '在察右前旗3000平方米政务服务大厅，审批、工改、不动产、公安、民生、税务、公积金七个专区，93个办事窗口面向公众开放，企业、群众可进厅办理行政审批、民生服务事项848项。', '为了进一步优化营商环境，中心还专门设立绿色通道，实现全程“帮办代办”的一站式服务。截至目前，累计签订企业委托书68份，无偿办理78个项目。', '“像一些工程建设项目，以前从立项到拿到施工许可证，企业要去发改委、自然资源局、住建局、消防等多个部门，办理节能、林地、人防、消防等相关手续，办理时限需要45个工作日，实施行政审批集中划转后，只需在‘帮办代办’窗口，提交齐全、准确的资料，34天便可办结，压缩时限25%左右。” 帮办代办服务中心负责人赵海龙介绍。', '同样是为了让群众少跑腿，化德县行政审批和政务服务局推出流动服务、并联审批等一系列便民服务举措，科学划分功能区，优化调整窗口，确保服务功能更加完善，“一站式”服务提档升级，使多项审批在一个窗口全部完成。', '同时，深入推进“一件事一次办”，推行“一张表单”申请和“一套材料”受理模式，并设置“蒙速办·一次办”专窗，让群众办理的部分事项由“跑多个部门”转变为“最多跑一次”。', '6月15日中午，刚注册了新公司的张先生来到“24小时不打烊”自助服务区，进行自助领票操作，“即到即办，几分钟就办好了。”', '“这里主要是接续电子税务局的工作，客户带好身份证，就可以完成申报缴税、申领发票等业务，网上走完流程，后台票种核定，实现实时审核，实时办结。”导办员李莉在一旁指导讲解。', '24小时自助服务区位于察右前旗政务服务大厅外侧，这里共设置有金融、人社、公安、自助办税、公积金、免费复印、异地通办七个专区，15台智能化自助终端机和8台电脑，全天候开放。', '“自助服务区涉及600多个高频便民服务事项，通过打造白加黑、全天候不打烊的优质政务服务，力求让政务办理更加便捷，让办事群众更加满意。”政务服务中心主任赵红艳说，自助服务区还安排了人工导办，为办事群众提供咨询、引导等服务。', '在赵红艳的协助下，记者体验了身份证明打印业务。在终端上点击“无身份证明办理”，输入个人信息、选择身份证明用途、进行人脸识别，身份信息就出现在了终端屏幕上；选择“打印”，一份临时身份证明从终端输出。整个过程用时不到3分钟。', '据赵红艳介绍，自助服务区运行以来，已累计为群众办事1.6万余件，接下来自助服务区将持续拓展更多高频功能。', '“24小时不打烊”自助服务区作为察右前旗创优政务服务方式、提升政务服务质效的举措之一，确实为办事群众带来了快捷与便利。其中，“异地通办”已全面实现了与上海、江苏等17个省市、苏州等44个地级市以及呼包鄂等100多个区县事项跨区域通办业务，有效解决了群众办事“异地跑”“多头跑”“折返跑”的烦恼。', '优化行政资源配置，创新行政审批方式，精简事项，优化流程，减少材料，压缩时限，相对集中行政许可权改革不仅有效提高了行政审批效率，也让办事群众真正成为政务服务新时代的最大受益者。', '“察右前旗和化德县改革试点工作的顺利完成，为我市进一步推进相对集中行政许可权改革提供了可复制可借鉴的宝贵经验，今年，市本级、丰镇市、察右后旗和凉城县也已经申报了改革试点，希望通过不断扩大试点范围，助推行政审批改革，营造更加优越的营商环境，让企业、群众享受更加规范、阳光、透明的政务服务。”市委编办主任池涛说。', '“营商环境没有最好，只有更好。”随着改革深入推进，行政效能不断提升，我们相信，持续优化的营商环境将为我市经济持续稳定增长和高质量发展聚动能添活力。']</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>33</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>乌兰察布市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>乌兰察布市</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>知史爱党初心如磐</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2021-04-01</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>https://www.wulanchabu.gov.cn/jrwlcb/28485.html</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['从1921年到2021年，是中国共产党带领人民筚路蓝缕积极建设的一百年，更是波澜壮阔创造辉煌的一百年。', '2月20日，中共中央总书记、国家主席、中央军委主席习近平出席党史学习教育动员大会并强调，在全党开展党史学习教育，是党中央立足党的百年历史新起点、统筹中华民族伟大复兴战略全局和世界百年未有之大变局、为动员全党全国满怀信心投身全面建设社会主义现代化国家而作出的重大决策。全党同志要做到学史明理、学史增信、学史崇德、学史力行，学党史、悟思想、办实事、开新局，以昂扬姿态奋力开启全面建设社会主义现代化国家新征程，以优异成绩迎接建党一百周年。', '作为党政治生活中的大事，学习党史既是砥砺初心使命的“磨刀石”，也是激发干事创业精气神的动力之源，更是推进新时代党的建设的重大契机。党员在哪里，党史学习教育就要跟到哪里。连日来，全市各级党组织坚持层层带动、精心组织实施，着力打通党史学习教育“最后一公里”，让每一个支部、每一个党员都学起来、动起来，让“神经末梢”与中枢大脑意志统一、行动统一、步调一致。', '市委将党史学习教育作为一项重大政治任务，及时召开市委常委会学习贯彻中央、自治区党委党史学习教育动员会议精神，研究安排工作任务。', '欲知大道，必先为史。3月9日，市委副书记、市长奇飞云在全市党史学习教育动员会议上，对全市党史学习教育进行全面系统动员部署。并要求全市各级党组织和广大党员干部严格按照党中央和自治区党委的部署要求，认真学习习近平总书记重要讲话精神，增强“四个意识”、坚定“四个自信”、做到“两个维护”，扎扎实实开展党史学习教育，引导干部群众把党的历史学习好、总结好、传承好、发扬好。', '3月22日，市委副书记、市长奇飞云主持召开市委中心组集体学习暨党史学习教育第一次专题研讨会，围绕习近平总书记在党史学习教育动员大会上的重要讲话，以及参加内蒙古代表团审议时的重要讲话精神，并结合我市实际，开展党史学习教育交流研讨。', '在自治区党史学习教育动员会议召开以后，市委迅速行动，审议通过了我市《关于开展党史学习教育的工作方案》，制定下发了我市开展党史学习教育工作方案，组织召开了领导小组办公室工作会，组建了由19名理论宣讲骨干组成的市委党史学习教育宣讲团，派出了由市二级巡视员或一级调研员任组长的8个市委党史学习教育巡回指导组，对全市党史学习教育开展指导督查，确保党史学习教育取得实效。', '在此过程中，全市各级党委（党组）、基层党组织纷纷以理论学习中心组学习、“三会一课”等形式，开展党史第一课学习，重点学习了《论中国共产党历史》《毛泽东、邓小平、江泽民、胡锦涛关于中国共产党历史论述摘编》《习近平新时代中国特色社会主义思想学习问答》等指定学习书目，引导党员领导干部了解党的光辉历史、感悟党的初心使命、领会党的创新理论。', '截至目前，各旗县市区及市直各单位全部召开了动员部署会议，全面掀起了党史学习教育高潮。', '市委组织部组织开展“学党史强党性，守初心担使命”主题党日活动，观看记录影片《钢铁运输线》，围绕在机关开展党史学习教育进行交流研讨。', '市直属机关工委开展“巾帼心向党·百年正辉煌·学党史忆党史”主题党日活动，组织举办“喜迎建党100周年”理论知识竞答，不断强化机关党员干部爱国爱党意识。', '团市委官方微信平台开设“建党百年 天天学党史”专栏，从2月22日开始每天发布党史知识；兴和县团委“团团带你学党史”公众号专栏自2月13日开设以来，累计发布各类党史学习教育宣传推送9期，阅读量达522次。', '市委党校以“学党史、悟思想、办实事、开新局”为主线，利用楼梯间空间建设党史学习教育阵地，3月18日开始通过布展板、播视频等形式宣传党史，大力弘扬党的优良传统。', '乌兰察布电业局推出线上党史微讲堂——《其其格讲党史》栏目，进一步丰富党史学习教育的形式内容。', '市烟草专卖局和临空产业园区管委会的支部书记分别以《从党的百年历史中汲取智慧和力量》和《学党史、知党情，做合格党员》为题，开讲专题党课。', '集宁区团委联合区科协、国爱志愿者协会、新体路街道团工委、西部计划团支部等单位团体开展了“学百年党史 品书香集宁”读书分享会，各行各业青年齐聚一堂品读百年党史，感悟真理力量。', '近日，聚焦“学党史、悟思想、办实事、开新局”总要求，我市各地各部门各单位持续深入开展高标准高质量学习教育活动，通过教育阵地、组织生活等载体，进一步丰富学习形式、增强学习实效、树牢理想信念，让党史学习教育学起来，切实推动了全市党史学习教育走深走实。', '“一切向前走，都不能忘记走过的路，走得再远、走到更光辉的未来，也不能忘记走过的过去，不能忘记为什么出发。”', '3月5日，习近平总书记在参加内蒙古代表团审议时强调了学习党的历史、弘扬优秀传统的重要性，号召全党大力发扬红色传统、传承红色基因，赓续共产党人精神血脉，在新征程上攻坚克难、奋勇前行。', '乌兰察布是中国共产党较早开辟工作的地区之一，有着悠久的革命传统和丰富的红色资源。京绥铁路工人大罢工，在这里播下了革命火种；红格尔图战役打响了绥东抗日第一枪；集宁战役，有力支援了华北和平解放；“三千孤儿入内蒙”，草原母亲都贵玛用半个世纪的真情书写了民族团结佳话。', '历史照亮未来，征途未有穷期。全市各地充分利用红色资源，推动党史学习教育在红色基因里汲取奋进力量。', '让党史“说话”，用史实“发言”。行走的思政课让党史学习教育“活起来”。3月22日，集宁师范学院将思政课“搬”进了党史馆。40多名师生在讲解员的带领和讲解下，边走、边听、边看，通过党史馆展览的图片文字、留存实物，进一步了解中国共产党在乌兰察布地区发展的这段波澜壮阔的历史，鼓舞青年学生们为实现中华民族伟大复兴的中国梦而努力奋斗。', '察右中旗进一步发挥绥中抗战纪念馆等革命遗址遗迹的教育引领功能，通过主题党日、情景党课、考察学习等形式，开展党史学习教育和爱国爱社会主义教育活动，传承革命精神，延续红色血脉。', '凉城县挖掘革命历史、红色文化，组织党史专家、老党员、老干部以及道德模范等，开办“岱嘎淖尔学习夜校”，通过身边事教育身边人；组织干部职工、中小学生、广大群众开展“追寻革命足迹”红色主题游活动，走进绥蒙革命纪念园、贺龙革命活动旧址、绥南专署旧址，推动党史学习教育走深走实、取得实效。', '立志千秋伟业，百年风华正茂。每一次聆听百年党史回声都是精神的洗礼，也是奋进的动力。学习党史的过程是以史为鉴、叩问初心的回首，更是向史而新、续写华章的展望。聆听百年历史回声，牢记初心使命，必能激荡出奋进新征程的时代强音。']</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A31" t="n">
+        <v>33</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>乌兰察布市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>乌兰察布市</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>牵牢牛鼻子精耕责任田汇聚八方力</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2021-08-26</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>https://www.wulanchabu.gov.cn/jrwlcb/41363.html</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>['牵牢“牛鼻子”精耕“责任田”汇聚“八方力” - 今日乌兰察布 - 乌兰察布市人民政府', '乌兰察布市委将实现一届内巡察全覆盖作为重要政治任务，全面贯彻巡视工作方针，精准落实政治巡察要求，把握新时代巡察工作高质量发展的内在逻辑，构建上下联动一盘棋的工作机制与格局，统筹谋划推进全覆盖任务有效落实，为更好发挥监督保障执行、促进完善发展作用，确保党的理论和路线方针政策和党中央、自治区党委及市委的重要决策部署落到实处提供坚强政治保障。', '夯实各级党委主体责任，发现问题形成震慑。2017年巡察工作开展以来，市委积极落实党委主体责任，把巡察工作作为落实全面从严治党主体责任的重要抓手，列入年度工作要点，目前已召开市委常委会专题研究巡察工作14次。书记认真落实“第一责任人”责任，把巡察作为“书记工程”来抓，切实做到“四个亲自”，并明确整改要求和具体处置意见，目前已召开书记专题会听取巡察综合情况汇报13轮次；巡察工作领导小组严格落实组织实施责任，召开领导小组会议16次，认真研究谋划每轮次巡察工作；市委巡察办认真履行统筹协调、指导督导责任，目前已协调巡察组完成13轮巡察，覆盖市直单位党组织88个，覆盖率为100％。', '加大督促指导力度，推动改革促进发展。一是督促指导巡察组扎实开展巡察工作。市委巡察办聚焦重点、紧盯关键对巡察组开展巡中指导，与各组成员进行面对面互动交流、点对点交换意见，压紧压实巡察工作责任，细化巡察监督重点，及时推动解决监督重点不实、发现问题不准、工作进度滞后等问题，增强巡察工作实效，横向推进巡察工作顺利开展。二是督促指导下级巡察机构履行好职能责任。市委巡察办根据工作需要，制定完善《关于对巡察工作开展指导督导的通知》，每年每季度派出现场指导督导组，跟进指导、督促规范基层巡察工作，并适时开展专题调研指导，动态把握全市巡察工作态势分析，加大干部队伍培训，编印工作指导手册，确保巡视工作方针一贯到底，纵向推动基层巡察机构依规依纪依法开展巡察。2021年第一季度，市委巡察办派出2个专项组对旗县（市、区）全面推行国家统编教材情况开展了现场指导督导；2021年4月市委巡察办组织全市各旗县市区委巡察办主任，先后赴鄂尔多斯市、兴安盟两地巡察机构进行考察学习，学习借鉴巡察工作的先进经验和有效做法，提升我市巡察工作质效；2021年8月市委巡察办主任带领巡察工作指导督导组深入各旗县地区，就村（社区）级巡察工作开展情况及下一届党委巡察工作统筹部署情况开展调研指导。目前已举办全市巡察干部业务培训班13期；编印巡察工作指导手册7本。', '市委全面监督，统筹推进政治巡察。一是强化市县巡察任务统筹。市委按照《盟市统筹整合巡察力量开展巡察监督办法（试行）》要求，充分整合市县两级巡察机构力量，通过提前会商沟通，运用提及巡察、“提及+交叉”巡察等方式对脱贫攻坚、煤炭资源等重点领域和板块开展联动监督，深入查找和推动解决行业性、系统性问题141个。市委巡察工作领导小组按照中央、自治区党委及市委部署要求，对全市巡察联动任务进行科学统筹安排、分层组织实施。二是统筹抓好全覆盖任务落实。市委将完成巡察全覆盖作为硬性政治任务，根据每轮次巡察任务安排，灵活运用常规巡察、专项巡察、提及巡察、巡察“回头看”等方式，合理规划安排，优化力量配置，统筹处理好数量与质量、进度与效果的关系，同时要求旗县（市、区）党委要把延伸巡察苏木乡镇基层单位、嘎查村（社区）党组织纳入巡察整体规划，有效推进有形覆盖和有效覆盖相统一。目前全市已实现对730个党组织（不含嘎查村、社区）、1520个嘎查村（社区）巡察全覆盖。', '突出精准监督，提升巡察覆盖质效。一是突出“三个准确把握”，精准发现问题。准确把握全面从严治党阶段性特征、准确把握监督对象层级特征、准确把握行业领域特征，实事求是发现被巡察党组织现阶段主要矛盾、行业领域特点，做到精准画像。针对教育、卫生健康、政务服务、生态环境等重点领域和供销社等重点行业，市委巡察组对一些被巡察党组织适时开展巡察“回头看”和“提及+交叉”巡察“回头看”，运用巡察再监督，推进巡察覆盖数量与质量同步提升，目前发现各类问题共计102个。二是突出“客观科学”，精准分析问题。市委巡察组积极发挥“显微镜”和“探照灯”作用，透过被巡察党组织的具体业务，梳理典型问题、精准甄别问题、全面审视问题，客观分析、科学研判其在党的领导、党的建设、全面从严治党等方面存在的政治偏差。为实现精准定性问题、客观真实反映问题，市委巡察办与各巡察组建立了巡察报告组办会商制度，通过会前通知把关、会上讨论研判、会后协作核改，扎实开展会商研判，精准落实政治巡察要求，聚焦被巡察党组织和党员领导干部的政治责任，提高巡察报告质量，提升巡察工作质效。', '统筹推进监督贯通融合，畅通巡察监督渠道。市委统筹推进巡察监督与纪律、监察、派驻、组织、宣传、人大、审计、统计、舆论及群众等各类监督贯通融合，为精准、深入开展巡察监督畅通渠道，着力构建全覆盖权力监督机制，切实增强综合监督效果。市委巡察工作领导小组组织召开全市巡察工作推进会，推进各类监督力量为巡察工作凝心聚力。市委巡察办协调纪检监察机关重点做好巡前情况通报、纪检监察干部抽调，巡中沟通会商、工作支持，巡后处置问题线索、强化整改日常监督和成果综合运用；制定出台《乌兰察布市委巡察工作人才库人选选配与管理暂行办法》，选优配强巡察铁军，并协调组织部门在有关人员抽调、信息互通、业务支持、整改日常监督等方面的协作配合。为充分发挥巡察培养锻炼干部的“熔炉”作用，对巡察工作表现突出的干部同等条件下优先提拔任用，市委办印发了《关于选派新提任干部参加巡察工作实践锻炼的实施办法》，着力破解了巡察“抽人难”“抽硬人更难”等问题，促使新提任领导干部达到“参与一轮，全面提升”的效果。目前市委巡察人才库有168人，组长库有22人；已选配新提任领导干部14人参与四届乌兰察布市委第十四轮巡察。同时协调乌兰察布日报社等新闻媒体，开辟“利剑出鞘 巡察在路上”专栏，加强舆论监督，拓宽巡察工作的社会知晓度，目前已刊载9期。', '健全完善巡察整改机制，深化巡察成果运用。巡察工作开展以来，全市持续推行“未巡先改”共性问题前置整改机制，推动共性问题早整改、早纠正。', '结合工作实际，市委巡察办牵头制定了《乌兰察布市委巡察整改工作实施细则》，从责任、内容、时限等方面严肃规范整改工作，对整改情况开展督查评估，对整改不力的单位追责问责，全过程抓好巡察整改，防止巡察问题整改走过场、轻效果，彰显政治巡察震慑力。如针对自治区党委优化营商环境专项巡视反馈意见，市委巡察办坚持每周一调度，召开巡视整改调度会、深入基层面对面督促整改，推动责任单位落实整改责任、加快整改进度。']</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A32" t="n">
+        <v>33</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>乌兰察布市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>乌兰察布市</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>让党史学习教育活起来</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2021-03-29</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>https://www.wulanchabu.gov.cn/jrwlcb/31084.html</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>['自党史学习教育开展以来，我市各地各部门聚焦“学党史、悟思想、办实事、开新局”总要求，迅速行动，精心安排，持续深入开展特色鲜明、形式多样的学习活动，推进党史学习教育。', '丰富学习载体，让党史学习教育“火”起来。全市各级党组织在党史学习教育中，注重方式方法创新，结合实际开展学习活动。集宁区举行“国旗下的礼赞”每周集中升旗仪式以及国旗下的告白、国旗下的誓言活动，以朗诵、演唱、快板等形式讴歌党的光辉历程、讴歌祖国，有效激发广大党员干部干事创业的激情和爱党爱国的情怀。丰镇市制定“党史学习教育工作任务清单”“党史学习教育学习进度清单”，开办“学习晨会”，组织各级党组织每天利用半小时时间，开展“党史每日一学”活动，激励党员干部铸牢信仰之基。市委组织部组织开展“学党史强党性，守初心担使命”主题党日活动，观看记录影片《钢铁运输线》，围绕机关工作开展党史学习教育进行交流研讨。市直属机关工委开展“巾帼心向党·百年正辉煌·学党史忆党史”主题党日活动，举办“喜迎建党100周年”理论知识竞答，使机关党员干部在答中学、学中答。', '打造学习阵地，让党史学习教育“活”起来。全市各地各部门线下线上学习阵地齐上阵，理论学习场所和微信公众号、微信学习群、网上学习讲堂同时发力，让党史知识入脑入心。市委宣传部组织全市各级媒体开设“奋斗百年路 启航新征程 学党史 悟思想 办实事 开新局”“奋斗百年路 启航新征程 打造红色文化高地 铸牢中华民族共同体意识”“庆祝建党百年 党史学习教育”等专栏专题，第一时间转载转发中央及自治区主要媒体刊播的重点报道，刊播全市党史学习教育动态，截至目前，全市各级各类媒体共发布报道1000余条。市委党校依托办公场地打造“学党史、悟思想、办实事、开新局”学习教育园地，利用学校报告厅LED屏幕滚动播放《党的回眸——历史上的今天》，通过布展板、播视频等形式学习宣传党史。市电业局推出线上党史微讲堂——《其其格讲党史》栏目，进一步丰富党史学习教育的形式内容，同时开设“感党恩 跟党走”栏目，宣传报道老党员的故事。集宁区新华街道成立“家庭党校”，走进老党员家中，与老党员交流学习，学习他们的光荣事迹和优良作风，聆听他们讲述党史中的峥嵘岁月。目前，全市各地各部门利用微信公众号等网上学习平台普遍开设了“党史百年天天读”“带你学党史”“党史故事100讲”等党史学习教育专栏，每天为党员干部推送党史知识，切实增强学习实效。', '传承红色基因，让党史学习教育“亮”起来。各地各部门充分利用红色资源，推动党史学习教育在红色基因里汲取奋进力量。察右中旗进一步发挥绥中抗战纪念馆等革命遗址遗迹的教育引领功能，通过主题党日、情景党课、考察学习等形式，开展党史学习教育和爱党爱国爱社会主义教育活动，传承革命精神、延续红色血脉。凉城县挖掘革命历史、红色文化，组织党史专家、老党员、老干部以及道德模范等先进典型，开办“岱嘎淖尔学习夜校”，通过身边事教育身边人，同时组织干部职工、中小学生、广大群众开展“追寻革命足迹”红色主题游活动，参观绥蒙革命纪念园、贺龙革命活动旧址、绥南专署旧址，推动党史学习教育走深走实、取得实效。市文联要求各协会积极创作庆祝建党一百周年系列文艺精品，以文艺的形式歌颂党的百年光辉历程。']</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A33" t="n">
+        <v>33</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>乌兰察布市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>乌兰察布市</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>察右后旗多措并举招商引资促进经济发展</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2024-01-26</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>https://www.wulanchabu.gov.cn/qxdt/1472007.html</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>['结合区域优势和资源优势，走以资源引资、以资源利商的路子，牢固树立项目是投资的载体和支撑，抓经济就是抓投资，抓投资就是抓项目的思想，积极主动出击，狠抓跟踪落实。', '一是夯实基础硬件。在新材料园区与国有企业加强联系，加大标准化厂房建设，夯实招商引资的基础硬件。二是明确产业定位。打造旅游产业、食品加工和新能源等八个产业链，明确板块功能定位，设定板块区域范围，规划板块发展方向，确保在招引项目上更能精准发力。三是强化培训学习。按照旗委“全域招商、全员招商、全链条招商”要求，大力培养专业性招商干部，增强业务能力、谈判能力、研判能力，做到懂政策、懂产业、懂市场、会算账，确保“知己知彼”，增强招商实效。', '一是围绕国家、自治区战略谋划重大项目。紧跟国家和省市战略部署和政策方针，借助与北京对口帮扶和东部产业转移的契机，谋', '划包装了一批重点项目。二是聚焦市场需求谋划前沿项目。对接京津冀、长三角、珠三角等地，设立专业招商团队，谋划了一批产业关联性强、上下游紧密衔接的链条项目，加快围绕文化旅游产业、现代农牧业、现代物流、新材料和新能源等培育 8 条产业链。三是立足比较优势谋划特色项目。充分利用交通优势、自然资源等优势，谋划包装了现代物流园、五个小镇项目。', '一是信息渠道“广”起来。与中介机构、商协会等招商平台加强沟通合作，发挥中介力量，拓展招商空间；与本地企业家密切联系，通过聘请招商顾问等形式，激发企业家推荐项目的热情，促进“以商招商”。二是精准招商“实”起来。利用各种推介会、招商会，筛选成熟度高、可操作性强的高质量项目作为主攻方向，对专精特新企业、科技型中小企业、独角兽企业重点关注，在新材料和新能源链上下功夫，引进高新技术企业。三是对接洽谈“跑”起来。瞄准北京、长三角重点区域，先后到北京、长沙、宁波、佛山、成都、天津、青岛、上海、郑州等地考察学习，全年不少于 30 余次，邀请企业上门商谈 70 余次，推动察右后旗招商动起来、跑起来。', '一是实施“党支部+”工程，打通问题解决“绿色通道”。充分发挥党建引领作用，把签约项目纳入党支部工作，24 小时协调解决项目落地过程中遇到的', '难点堵点痛点问题，全力确保项目顺利落地开工。二是实施“全代办+”工程，探索手续办理“快速通道”。以赋权承接、落地评价、旗内事旗内办为抓手，积极完善“全程服务”，在公司注册、备案、许可等手续办理上，实行半日结；全过程、全周期代办项目手续，加快项目落地速度。三是实施“强要素+”工程，做优服务企业“贵宾通道”。着力营造“亲商、安商、重商、富商”氛围，量身解决项目水、电、路网等基础设施及配套设施建设，为项目建设踢开“绊脚石”，同时，为企业安心创业解决后顾之忧，为企业申请保障性住宿公寓、给随迁子女解决就近入学等一系列问题，真正让企业实现“安居乐业”。']</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A34" t="n">
+        <v>33</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>乌兰察布市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>乌兰察布市</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>我市构筑营商环境引力场助推高质量发展</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2021-04-19</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>https://www.wulanchabu.gov.cn/yhyshj/28668.html</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>['我市构筑营商环境“引力场”助推高质量发展 - 优化营商环境 - 乌兰察布市人民政府', '营商环境是衡量一个地区高质量发展的试金石。如何让企业“一见倾心”扎根成长，如何激发干事创业激情打造一方热土，作为年轻、时尚、创新的乌兰察布在优化营商环境上出实招、放大招，打出一系列行之有效的“组合拳”，用实干给出有力答案，有效推动“放管服”改革向更深层次、更广领域开展，进一步构筑营商环境“引力场”，助推我市经济社会高质量发展。', '放眼未来，我市正以培育市场主体、改善企业对政府服务满意度、解决老百姓办事难为目标，大力度下放行政职权，优化审批流程，主动上门服务企业、服务项目，坚决整治“中梗阻”，推动营商环境建设取得新突破，全力打造营商环境建设新“高地”。', '优化营商环境，激发经济活力，是推动高质量发展的必由之路，是解决经济社会发展薄弱环节、加快实现追赶超越的迫切要求。', '按照市委四届九次全会部署要求，我市将2020年确定为“营商环境作风整治年”和“全员招商年”，着力解决企业反响强烈、群众反映集中、社会普遍关注的作风顽疾，坚决查处侵害群众利益、损害党和政府形象、破坏发展环境的人和事，推进思想观', '念加快转变、党风政风持续好转、营商环境明显改善、法治环境不断优化，营造风清气正、主动担当的良好政治生态，着力改变乌兰察布落后现状，为促进经济高质量发展提供坚强保障。', '“问需于企、问计于企”是优化提升营商环境工作的有效抓手。市委、市政府先后出台了《乌兰察布市进一步优化营商环境工作方案》，印发了《乌兰察布市优化营商环境重点任务及责任分工》，推动建立了全市34个部门参与的优化营商环境联席会议制度，进一步理顺了全市优化营商环境工作机制。同时，不断加强问题梳理与整改，制定了《乌兰察布市优化营商环境工作“三张清单”》，使我市优化营商环境工作得到社会各方面认可。', '年初，受疫情影响，我市中小企业面临着严峻考验。如何帮助企业在逆境中走出一条发展之路，我市各级各部门做出多项举措。按照《内蒙古自治区人民政府关于支持防控疫情重点保障企业和受疫影响生产经营困难中小企业健康发展政策措施的通知》要求，市相关部门结合实际从优化审批服务、加大财政支持、减轻企业负担、加强经济运行调度等方面，牵头起草出台了七条具体措施，用实际行动，保障我市重点企业正常生产经营，解决了受疫情影响较大的中小微企业生产经营困难。其次全市上下认真贯彻落实国家和自治区各项减税降费政策，并对防控疫情重点保障企业和受疫情影响暂时出现经营困难的中小企业，实行用电、用气、用水等“欠费不停供”，疫情结束3个月内及时补缴相关欠费，不收滞纳金等措施，助推中小微企业在疫情期间正常运行。', '2020年，我市把提高行政审批效率作为优化营商环境的重头戏，组织开展重大项目“集中审批周”活动，对99家企业申报的141个项目、涉及184项申报事项进行了审批，项目总投资763.5亿元，已办结事项171项，办结率达90%以上。', '良好的社会氛围同样有助于优化营商环境的构建，各相关部门通过报纸、电视、微信公众号等主流媒体，出租车、公交车显示屏，户外宣传活动等多种形式广泛进行了《优化营商环境条例》及诚信宣传教育活动，市直成员单位、集宁区有关部门、50余个诚信企业、商协会代表参加了活动，并制作展板200多块，现场发放《优化营商环境条例》等各类法律法规5万多份。活动还向企业宣传优化提升营商环境的工作新成效和惠企新政策，详细介绍了在乌兰察布投资、生产、经营过程中，企业开办注销、建设项目审批、办理不动产登记、纳税服务、跨境投资贸易、企业降本减负、涉企政务服务等方面的优惠政策和承诺时限，让每一户企业都能在乌兰察布这块沃土上放心投资、安心经营、专心发展。', '只有最大限度释放改革红利，才能推动营商环境不断优化。一年来，乌兰察布以落实“简政放权要彻底、政务服务要阳光、降本减负要实效、政商关系要亲清”四大任务为重点，充分发挥政府的主观能动作用，以主动服务、优质服务让群众舒心、企业顺心，全力推进优化提升营商环境工作再上新台阶。', '为此，我市以“最多跑一次”改革为重点撬动各方面各领域改革。市政务服务局坚持以深化“放管服”改革为有力抓手，以更快更好方便企业群众办事创业为导向，认真履行综合协调职责，督促各地各部门按照深化“放管服”改革优化营商环境重点任务分工，通过取消、下放、合并、执法重心下移等方式，深入推进“一网、一门、一次”改革和“最多跑一次”改革，实现了网上可办率达90%，在自治区政务服务移动端“蒙速办”APP上部署特色应用29项。实体大厅服务质效不断提升，“互联网+监管”工作稳步推进，企业代办帮办队伍得到建设，呼包鄂乌政务服务事项互办互认工作协同推进，乡村党群服务中心标准化建设持续巩固提升……', '2020年6月和10月，我市积极组织全市优化营商环境联席会议成员单位分别先后前往鄂尔多斯市、浙江省衢州市考察学习优化营商环境典型经验做法，通过深入系统的学习，相关部门工作人员对优化营商环境的认识水平与业务能力得到有效提高。举办讲座、聘请专家，对市直单位和11个旗县市区共计1100余人就解读国家营商环境评价指标体系相关内容、营商环境评价方式以及优化营商环境的意义和经验做法进行培训。', '近年来，乌兰察布市领导干部恪守“亲”“清”二字，公私分明、坦荡真诚，主动当好亲商、富商、安商的“店小二”，将优化提升营商环境当作是一场刀刃向内的自我革命，坚决处理不作为、乱作为、服务意识淡薄、吃拿卡要等行为，并向企业郑重承诺：在乌兰察布不需要“找关系”“托人情”。市委、市政府会全力支持、全力配合、全力服务遵纪守法的企业，光明正大搞经营，让“马上就办”成为公务人员的自觉和常态。从企业需求出发，提供有效率的服务、有温度的服务，让广大企业在创业创新的道路上走得自信而坚定。', '去年以来，凉城县以企业和群众满意为目标，坚持在服务上做“加法”，在审批上做“减法”，持续深化“放管服”、“一次办好”改革，通过打造以党员干部做先锋的“帮办代办”队伍，努力创造优良的营商环境，打通服务企业群众“最后一公里”。', '化德县不断深化“放管服”改革，重点围绕营造公平竞争的市场环境、提升高效便捷的政务服务环境、完善精准有效的政策环境、健全平等保护的法治环境“四项举措”，着力提升政务服务水平，不断促进营商环境持续改善提升。', '集宁区全力构建高效透明的政务环境，多部门组合拳持续发力，简化办理流程，完善服务体系，以跑起来的姿态擦亮营商环境“金字招牌”，为我市经济社会高质量发展按下“加速键”。', '“现在太方便了，自治区内跨盟市户口迁移可以‘一站式’办理，这要是以前，需要在集宁区办理迁入，然后再带着开具的准迁证回到巴彦淖尔市办理迁出。来回奔波，劳心费力还耽误工作。”对于自治区跨盟市户口迁移“一站式”服务，来自巴彦淖尔市的尚女士连连夸赞。', '市民赵先生驾车经过集宁区虎山巷与虎山馨苑南侧通道交叉路口时发生碰撞，随即拨打了报警电话。接到电话后，正在巡逻的人保“警保联动”巡查人员立即赶往现场，到达现场后，巡查人员对现场进行拍照，并通过“交管12123”APP将照片上传，之后当事人就可以挪车了，挪车后可前往集宁区城市交通指挥中心快处快赔中心领取事故责任书。这一过程仅仅用了十分钟。', '“开办企业审批更快了”“缴水费电费燃气费更方便了”“有难事拨打12345政府服务热线就能解决”……这一句句来自企业和群众的真诚评价的背后，是我市持续优化营商环境取得的成效。', '一系列政策的出台，一件件实在的便民措施，彰显了我市优化营商环境的力度和决心。今日之乌兰察布，正在全力构建高效透明的政务环境，营造完备优质的企业经营环境和充满活力的人才环境，且已取得阶段性成果。良好的营商环境已转化为加快发展的现实生产力，推动着我市在振兴发展中一路前行。', '优化提升营商环境，推动新一轮发展，乌兰察布正在以更坚定的决心和更大的魄力，披荆斩棘，勇往直前，让营商“软”环境培育发展“硬”实力，激发起企业创业创新的热情与活力，汇聚起支撑经济高质量发展的动力与合力。']</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A35" t="n">
+        <v>33</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>乌兰察布市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>乌兰察布市</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>决战决胜扫黑除恶专项斗争创造安全稳定社会环境</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>2021-01-27</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>https://www.wulanchabu.gov.cn/jrwlcb/32725.html</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>['决战决胜扫黑除恶专项斗争 创造安全稳定社会环境 - 今日乌兰察布 - 乌兰察布市人民政府', '伴随着坚决贯彻落实党中央、国务院、自治区党委、政府关于扫黑除恶专项斗争决策部署的强劲步伐，乌兰察布市委、市政府紧扣三年为期总目标，科学谋划、精心组织、攻坚克难，以“破案攻坚”开道、以“深挖彻查”破伞、以“打财断血”铲根、以“问题整改”提效，确保扫黑、除恶、治乱、打伞、强基“五位一体”整体推进，以维护社会公平正义、激浊扬清、守护安宁的历史担当，上下齐心，齐抓共管，出重拳、下狠手，带领各地各部门、各行业以及广大干部群众迅速行动，在乌兰察布大地开展了一场轰轰烈烈的人民战争,一批涉黑涉恶犯罪案件得到迅速侦破，一批涉黑涉恶犯罪分子受到法律严惩，一批涉黑涉恶“保护伞”得到及时清除，一批涉黑涉恶财产得到有力追缴。努力实现了“人民安居乐业、社会安定有序、市域长治久安”的良好局面，为全面建成小康社会营造了稳定的社会治安环境。三年来，我市扫黑除恶专项斗争以强大攻势席卷黑恶、如浩瀚春风涤荡污浊，全市政治生态、社会生态、自然生态同步净化，百姓的获得感、幸福感、安全感与日俱增。这些数字和成果背后，凝结着乌兰察布市人民的奋斗和拼搏，交出这份不菲的成绩单，意义非凡！', '扫黑除恶专项斗争开展以来，市委市政府深入学习贯彻习近平总书记关于扫黑除恶专项斗争的重要指示精神，按照中央、自治区及市委的统一部署，科学谋划、精心组织、攻坚克难，紧扣三年为期总目标，以“破案攻坚”开道、以“深挖彻查”破伞、以“打财断血”铲根、以“问题整改”提效，确保扫黑、除恶、治乱、打伞、强基“五位一体”整体推进，确保专项斗争取得全面胜利。', '一是及早安排部署。2018年2月27日，市委召开全市扫黑除恶专项斗争推进会，从提高思想认识与政治站位、坚持问题导向与源头治理、强化责任落实与督导检查三个方面明确了10项工作任务，对专项斗争进行了全面安排部署。制定了《全市扫黑除恶专项斗争实施方案》，把专项斗争分为四个阶段，明确了每个阶段的工作目标、工作任务和完成时限。成立了市扫黑除恶专项斗争领导小组及办公室，并根据工作需要先后三次进行调整，由市委书记任组长，政法委书记、纪委书记、市公检法“三长”任副组长，30个相关单位主要领导为成员，办公室设在市委政法委，办公室主任由市委政法委书记担任。同时，市委、市政府两办下发了《乌兰察布市扫黑除恶工作机制规定》，从组织领导、依法履职办案、防范治理、责任督导和追究四个方面作出了明确规定。各旗县市区都成立了相应工作机构，制定了实施方案和工作机制，为迅速推进专项斗争奠定了坚实基础。', '二是精心组织谋划。市委、市政府把开展好扫黑除恶专项斗争作为重要政治任务来抓，截至目前，召开市委常委会6次、专题会8次；召开市政府常务委员会1次、市政府党组会3次、市长办公会2次、专题会1次，对涉及专项斗争的重要工作、重大行动、重点问题进行专题研究部署。市扫黑除恶领导小组共召开领导小组推进会8次，领导小组办公室召开调度会、协调会、推进会及其他会议74次，举办全市扫黑除恶培训班3期，指导、协调全市扫黑除恶工作扎实推进。特别是2018年11月8日自治区推进会后，我市进一步加大工作力度，专门组织人员赴河北省、江西省进行考察学习。并充实了市扫黑办工作力量；下发了《关于深入推进全市扫黑除恶专项斗争的意见》，从四个方面明确了13大项46小项工作任务。同时，市委书记与各旗县市区委书记、市长与市直各成员单位“一把手”签定了责任状，明确四级书记抓扫黑除恶工作机制，建立约谈和“无涉黑涉恶问题承诺”等制度，强化工作责任落实，确保了专项斗争的顺利实施。', '三是完善体制机制。在市扫黑除恶领导小组指导下，市扫黑办建立和完善了扫黑除恶专项斗争实绩月报、督查、调度、沟通协作、线索双向移送反馈、线索排查、信息报送、宣传工作、责任督导追究、重大复杂案件会商等10项工作制度，建立了研判、调度、通报、报告工作机制。每年年初制定下发全市扫黑除恶专项斗争工作要点，协调推进工作落实。市委政法委把扫黑除恶专项斗争列入全市政法工作要点的重要内容，明确了工作目标、任务；市纪委监委建立了领导班子成员联县包案工作机制，2019年5月9日、10日，市纪委监委约谈了3个旗县、7个成员单位党组书记，对16个市成员单位负责人进行了提醒谈话，有力推动了扫黑除恶工作。', '全市加大案件攻坚力度，截至目前，全市公安机关累计打掉黑恶组织和团伙74个，其中，打掉黑社会性质犯罪组织4个，铲除恶势力犯罪集团14个、涉恶犯罪团伙56个，破获刑事案件340起，抓获犯罪嫌疑人642人；全市检察机关共受理涉黑恶案件96件532人，起诉64件395人；全市两级法院共受理涉黑恶案件64件399人，审结63件393人，结案率为98.4%，认定涉黑恶案件42件242人。按照全国、自治区扫黑办的有关要求，我市共挂牌督办了24起案件，其中涉黑涉恶案件16起，命案积案7起以及1起全市重点关注的跨境赌博案件。我市针对这24起督办案件确定了包案领导以及包联督办领导，明确了督办目标以及预计结案时间。', '同时市扫黑办专门抽调4名业务骨干成立大案要案组，专门负责督办案件的协调工作，及时同办案单位联系沟通，全面了解案情，会同旗县扫黑办做好案件办理日程安排，倒排工期、挂图作战，保证按期办结。并按照要求每周调度了解一次案件进展，每2周会商解决一次困难问题，推动案件办理不断取得突破。', '截至目前，我市24起督办案件中，尚在侦查阶段3起，审查起诉阶段1起，均为多年未侦破的命案积案，审判阶段10起，判决生效10起；查封、扣押、冻结涉案财产约8.6亿元；纪委监委共查处涉黑涉恶腐败和“保护伞”95人。极大地震慑了我市黑恶势力犯罪，人民群众拍手称快。', '为深入推动扫黑除恶专项斗争，落实全国、全区扫黑除恶“百日追逃”专项行动部署，尽快将涉黑涉恶案件在逃人员抓捕归案，使涉黑涉恶犯罪团伙成员依法得到严惩，根据公安厅的统一部署并结合我市实际，2019年11月市公安局开展了“全市公安机关扫黑除恶追逃集中统一行动”，专门成立“追逃研判专班”，依托大数据平台及技侦、网安、图侦等专业技术手段，广泛搜集在逃人员信息，全面开展研判分析，提供精准情报支撑。', '各旗县市区公安局成立了本地“公安机关扫黑除恶追逃集中统一行动”领导小组，制定切实可行的追逃集中统一行动工作方案，精心组织，抓好各项措施的落实，确保行动扎实开展。行动中，各旗县市区全面梳理在逃人员关联线索，认真进行情报分析研判，针对性地落实措施，架网追逃。采取公开秘密手段相结合、多种侦查措施并用开展追逃；通过技侦、网安手段架网布控，密切掌握在逃人员的活动轨迹和行踪，及时抓捕归案；充分发挥大情报的作用，综合运用多种分析研判手段；对线索指向明显的在逃人员，充分发挥各种侦查、技术手段，展开抓捕行动。同时，各旗县市区将所有涉黑涉恶在逃人员照片整理上报。在全国、全区人口库中进行人像比对排查。并抽调精干警力组成专案组，刑侦、治安、网安、技侦、情报等部门警种同步上案、合成作战。真正形成了全警参与，全警追逃的良好氛围。', '为确保“全市公安机关扫黑除恶追逃集中统一行动”各项措施落实到实处，收到实效。市公安局将追逃集中统一行动列为扫黑除恶的重要内容。科学合理制定奖惩办法，对成绩突出的单位和个人予以表彰奖励；对工作落实不力、动作迟缓、成效不大的，予以通报批评；对失职、不作为等造成严重后果的，根据情节和责任给予相应处理。对发现的问题，及时采取措施督促整改。', '2020年年初经过市公安局“追逃研判专班”和各旗县市区公安局的共同努力，我市8名目标逃犯已全部抓获，提前实现了“逃犯清零”的目标。', '扫黑除恶专项斗争开展以来，为切实有效提升我市线索办理工作，市扫黑办严格按照自治区扫黑办要求，落实线索核查工作机制，规范线索转办、核查、报送流程，畅通线索核查沟通反馈渠道。', '第一、充实线索工作人员。市扫黑办抽组市委政法委、市纪委监委、市公安局、市中级人民法院等单位5名工作人员组成线索举报中心，充实加强线索办理工作力量。', '第二、全面压实责任。各地各成员单位扫黑办分管领导亲自上手，切实做好线索核查。市扫黑办负责全面统筹协调、督导调度线索核查工作；明确线索核查单位的主要领导是线索核查的第一责任人，分管领导是直接责任人，核查人员是具体责任人，对线索核查结果内容负责。', '第三、建立线索联络员机制。市扫黑办要求各地区各成员单位明确一名工作人员作为线索联络员，联络员负责对转办到本地区或单位的线索的核查进度进行跟踪，及时催要核查结果并对核查报告的报送格式等进行审核把关，做到自治区扫黑办交办线索件件有落实、有回音。', '第四、切实提高线索核查进度。市扫黑办在接到线索后第一时间组织研判，详细研究举报内容中所涉事项，如需多个单位负责核查时，及时转办各相关核查单位同步核查，避免漏查举报内容或因遗漏核查单位造成核查周期的延长，切实提高线索转办核查效率。并建立线索管理台账，明确线索核查单位、举报内容、办结时限等内容，方便跟踪线索核查进度。同时，市扫黑办要求各核查单位严格按照时限要求报送，对于已核查完成的线索要第一时间报送市扫黑办，对超期未办结的线索必须做出书面情况说明并定期向市扫黑办报送书面进展情况。', '第五、切实提高线索核查质量。市扫黑办对各核查单位报送的线索核查报告，对照举报材料内容逐项审核，确保不出现漏查现象。并针对线索核查工作中发现的线索核查周期较长，核查报告书写不规范、质量较低，线索反馈率较低等问题，专门下发了《关于进一步规范线索核查工作的通知》。要求线索核查单位按照举报内容逐项核查，确保不出现漏查现象；规范核查报告报送格式，在报送线索核查结果时需向市扫黑办提供核查线索的回复函、线索核查报告和反馈举报人情况说明。《通知》下发后，线索核查周期明显缩短，线索办理质效明显提高，核查工作报告规范程度显著提升。', '第六、建立健全线索督促催办机制。为加快线索核查进度、按时完成线索核查任务，市扫黑办适时召开全市线索工作调度会，积极推动全市线索核查工作。每周对转办线索进行电话调度，询问线索核查进展情况。对核查时限超期、未按时报送核查结果的线索，市扫黑办定期向核查单位下发《督办函》进行督办，对久办未结的线索进行全市通报。', '我市对线索摸排核查工作多次做出部署，并从2018年11月底开始，先后部署开展了三轮涉黑涉恶线索大排查集中行动。市扫黑办每周开展一次线索研判，明确了线索排查、登记、移送、反馈流程，下发通报9期、各类督办函7批次82件。指导各旗县加强线索收集，推动各行业部门开展“线索清零”行动。', '针对中央、自治区交办的线索，市扫黑办建立台账，逐件对账销号。2020年11月底前的“12337”平台线索和自治区交办我市的288条线索全部办结。被公安厅列入清零范围的2786条线索全部办结，是全区第一个完成“线索清零”的盟市。', '扫黑除恶专项斗争开展以来，乌兰察布市全面贯彻以习近平同志为核心的党中央关于开展扫黑除恶专项斗争的决策部署，在自治区党委、市委市政府的坚强领导下，不断提高政治站位，强化政治担当，坚持以人民为中心的发展思想，充分发挥公检法各机关财产处置主力军作用，从专项斗争圆满收官大局、经济社会发展全局高度，充分认识加强涉黑涉恶案件财产依法处置工作的重大意义，严格落实《内蒙古自治区涉黑涉恶财产专班工作细则》和《加强黑恶势力犯罪财产处置确保扫黑除恶专项斗争成效的实施意见》统筹做好“打财断血”和“六稳”“六保”工作，既彻底铲除黑恶势力经济基础、又依法保护合法财产，确保了“打财断血”工作始终沿着法制轨道推进，确保了乌兰察布市扫黑除恶专项斗争圆满收官。', '为切实加强全市黑恶势力刑事案件涉案财产处置工作，彻底铲除黑恶势力的经济基础，市扫黑除恶专项斗争领导小组先后制定下发了《加强黑恶势力犯罪财产处置的实施意见》、《乌兰察布市涉黑涉恶财产处置专班工作意见》，全市涉黑财产处置工作严格落实"一案一专班"原则，成立了全市涉黑涉恶财产处置工作领导小组及办公室，成立了14个打财断血工作专班，研究讨论财产处置工作中需要解决的各类问题，提出意见建议，推动工作落实。', '我市涉黑涉恶案件财产处置工作由市委政法委牵头，各级公安机关、检察机关和人民法院密切配合，其他职能部门根据职责积极配合、分工负责、协同并进；各单位与办案单位加强沟通协作，积极配合办案单位完成对涉案财产的查询、查封、扣押、冻结、评估、鉴定、拍卖、代管代托等工作，并指定了专人负责沟通联络；各级党委政法委加强组织协调，及时帮助推进有关财产处置工作进展。', '截至目前，全市公安机关共办理打到黑财的案件34起，查封、扣押、冻结涉案资产价值10.45亿元，其中19起案件已作出终审判决，18起案件已完成处置执行工作，涉案财产处置执行率达到94.7%。全市各级人民法院加强对涉案财产的审查认定，结合检察机关提出的财产处置意见，准确甄别、精准认定，依法依规进行判决，实现了执法办案与保障当事人合法权益的统一。乌兰察布市两级人民法院共判处相关被告人财产刑、追缴没收非法所得等共计2352.25万元，执行到位1568.9万元，执行到位率为66.7%，已判决生效涉黑涉恶案件33件，其中判处财产刑的23件。', '下一步我市将继续把黑恶案件财产依法处置作为专项斗争收官阶段的重点工作加以推进、紧抓不放，认真做好专项斗争“后半篇”文章，确保财产处置任务落实完成。', '扫黑除恶专项斗争开展以来，全市纪检监察机关聚焦职能定位，强化组织领导，严格监督执纪问责，深挖彻查涉黑涉恶案件背后的腐败、“保护伞”及失职失责问题，扎实开展“六清”行动，持续推进扫黑除恶专项斗争。全市各级纪检监察机关共立案查处涉黑涉恶腐败、“保护伞”及失职失责问题193件，给予党纪政务处分236人，移送司法机关21人。', '一、坚持问题导向，压实政治责任。市纪委监委建立了领导班子成员联系11个旗县市区联点包联督导工作机制，进一步加大对各旗县扫黑除恶工作的督促指导，及时督办解决工作中存在的困难问题。采取召开调度会、实地督导、逐案分析研判等方式，确保包联的重点线索及时处置查办。加强对各级党委和相关部门主体责任落实的监督，有效传导了压力。对存在问题地区的党委书记、纪委书记和相关部门负责人进行约谈，压紧压实各地各部门扫黑除恶专项斗争主体责任和监督责任。', '二、坚持加强领导，着力“打伞破网”。针对公安机关查办全市有影响的范云峰、赵三平、赵利平等涉黑涉恶犯罪组织团伙，成立了由市纪委书记负总责，市纪委副书记及常委牵头负责的8个“打伞破网”专班，形成了重点涉黑涉恶案件“双专班”工作机制。各“打伞破网”专班按照“一案三查”工作要求，加强与公安机关的沟通协作，通过调阅案卷、提审在押犯罪嫌疑人等方式，深挖彻查黑恶势力背后的腐败、“保护伞”及失职失责问题。', '三、坚持重点突破，抓好线索处置和问题整改。针对中央扫黑除恶督导组交办线索，市纪委监委成立两个突击组，下设23个突击队具体承办、督促指导办理中央扫黑除恶督导组交办问题线索。全市各级纪检监察机关共办理中央扫黑除恶督导组交办线索275件，办理自治区扫黑除恶督导组和自治区纪委监委交办线索141件。', '在落实中央扫黑除恶督导组反馈问题整改和问责建议工作中，市纪委监委主动对照认领中央扫黑除恶督导组反馈问题，对涉及纪检监察机关整改落实的个性、共性问题，逐项制定整改措施，明确责任部门及完成时限，全部完成整改。', '四、坚持以案促改，做好“后半篇文章”。市纪委监委在全市范围内发布《关于敦促涉黑涉恶腐败及充当黑恶势力“保护伞”的党员干部和公职人员限期主动投案自首的通告》，营造政策和舆论声势，有8名公职人员主动向组织交代问题。同时，对已查办的涉黑涉恶腐败、“保护伞”及失职失责案件进行梳理剖析，筛选典型案例，开展警示教育，做好以案促改“后半篇文章”。以我市查处的5起涉黑涉恶腐败案件作为典型案例，召开全市干部警示教育大会，举办全市政法系统干部廉政教育培训班，开展了23场全市警示教育巡回宣讲活动，全市党员领导干部共5000多人次接受了廉政教育。', '2019年，市委政法委落实“边扫、边治、边建”要求，加强基层综合治理专项工作，制定了《关于开展“创建平安乡村、助力扫黑除恶”活动的通知》，在全市范围内部署开展了为期半年的“平安乡村”创建活动。同时，认真落实自治区扫黑除恶专项斗争领导小组关于行业专项整治“6+4”的工作要求，组织各部门分别制定专项整治方案，开展专项整治行动。制定出台了《关于坚持“扫、治、建”结合全面推进扫黑除恶专项斗争工作的意见》（扫黑组发〔2019〕4号），围绕扫黑除恶一年治表、二年治根、三年治本的工作目标，坚持“扫、治、建”结合，对彻底扫黑除恶，着力推进综合治理工作进行了部署，明确了措施，提出了要求，形成了遏制黑恶势力滋生蔓延的长效机制。2020年，针对自治区部署的12个重点行业领域专项整治工作，于2020年4月21日、7月3日分别召开“全市扫黑除恶专项斗争重点行业领域专项整治工作视频推进会”及“全市扫黑除恶工作视频调度会”对行业治理工作进行再安排、再部署。各行业主管部门也全部制定了专项整治方案，并同步开展了专项治理行动。7月23日，市扫黑办又制定下发《全市扫黑除恶专项斗争重点行业领域专项整治实施方案》，要求各行业部门紧盯重点领域、重点部位，开展为期3个月的集中整治行动，综合治理取得明显成效。市市场监管局将整治和打击市场乱象整治与扫黑除恶专项斗争紧密结合，积极排查市场中可能存在的行业乱象，以强有力的手段严厉打击各类扰乱市场秩序的行为。截至目前，全市市场监管系统共出动执法人员36206人次，检查经营主体32234家次；查办案件304件；涉案产品货值55.092万元；罚没款金额919.8万元。移送公安机关1件；捣毁窝点3个，目前，罚没款总数在全区各盟市统计中排名第二。市文旅体局共出动文化旅游市场执法检查人员10637人次，检查文化旅游市场各类经营场所3480家次，责令停业整顿2家，办结案件60件，行政处罚57家。市住建局就“入住难”问题，截至目前累计解决27个项目、179.88万平方米(解决比例92.23%)、11949套（解决比例90.05%），自治区工作进展排名第四。“回迁难”问题，截至目前累计解决40个项目、33.41万平方米(解决比例92.03%)、3556户(解决比例91.86%)，自治区工作进展排名第三；“办证难”问题，截至目前累计解决26个项目、69.72万平方米(解决比例24.4%)、6632套(解决比例23.06%)。市自然资源局持续对房地产历史遗留问题房地产市场乱象等进行集中整治，优先解决群众诉求较为集中、涉及群众数量较多的房地产历史遗留问题，加强预告登记工作，防止一房多卖。市生态环境局对全市各旗县市区进行巡回督导“回头看”，全力推动生态环境领域扫黑除恶专项整治行动向纵深发展，确定“散乱污”企业整治和乱堆乱放等生态环境行业乱象128家，完成整治128家。市交通运输局运政系统共出动稽查人员1274人次，出动稽查车辆448台次，查处道路运输行业违章违法经营行为31起，查处非法营运“黑车”6台次。市卫健委开展全市卫生健康行业专项整治，严厉打击非法卫生健康行业突出问题专项整治。截至目前，共查处违反行业作风行为41起，医疗乱象85起。市教育局共规范整治社会补课机构593家，审批225家，对整改后仍不达标或者拒不整改的，各部门采取强制措施予以取缔，并在媒体上曝光，共取缔186家。市金融办共摸排银行业金融机构26家，从业人员签订承诺书1000余份；对全市15家融资担保公司、20家小额贷款公司和23家典当公司等地方金融组织开展现场检查，下达整改通知书52份。市农牧局开展农资打假“春雷行动”，共出动执法人员1585人次，检查农资经营主体876个，针对种植重点乡镇入户倒查700多户，共发现违规违法行为160起，责令整改126起，立案34起，没收违法所得0.2万元，罚款10.6万元，挽回经济损失总计达322.9万元。', '扫黑除恶专项斗争以来，全市组织部门认真学习习近平总书记重要指示批示精神，全面落实中央和自治区党委、市委决策部署，紧抓重点任务不放松，持续发力抓好基层建设，为扫黑除恶专项斗争提供坚实组织保障。', '市委组织部牵头，认真梳理我市存在的“基层组织软弱涣散、宗族派系干扰基层建设、黑恶势力把持基层政权、基层执法部门失职纵容黑恶滋生”4类突出问题，开展基层组织建设4类突出问题专项整治行动。按照“一村一策略”“一案一整顿”的原则，研究制定了《全市扫黑除恶整治基层组织建设薄弱环节和中央脱贫攻坚专项巡视“回头看”发展问题集中整改工作方案》，明确将“整顿软弱涣散嘎查村党组织”列入整治重点，要求各地聚焦嘎查村党组织存在的软弱涣散“14种情形”和“不忘初心、牢记使命”主题教育专项整治“3类”突出问题，对全市软弱涣散嘎查村党组织开展“回头看”，下发了《全市嘎查村“两委”正职基本情况摸底表》，对全市嘎查村“两委”正职情况进行摸底。三年来，共整顿软弱涣散党组织327个，基层党组织的战斗力、凝聚力不断加强，黑恶势力滋生土壤从根本上铲除。', '我市把宣传发动作为扫黑除恶的“先手棋”。在宣传制度保障方面，我市出台《关于印发&lt;乌兰察布市配合中央扫黑除恶专项斗争督导宣传工作方案&gt;的通知》《关于转发&lt;关于进一步加强扫黑除恶专项斗争宣传发动工作的通知&gt;的通知》、《扫黑除恶专项斗争集中宣传活动工作方案》等文件；在传统宣传方面，我市充分发挥主流媒体的宣传作用，以报、台、网、微全媒体阵容积极展开宣传，保持全媒体、全角度、高密度的宣传频次，通过刊登署名文章、悬挂标语横幅、发放宣传资料、设置咨询台等方式，向人民群众宣传党中央开展扫黑除恶专项斗争的相关文件精神、部署决策及其重要意义，截至目前，累计悬挂宣传标语横幅3万余条，发放宣传资料154万余份，入户发放扫黑除恶明白卡、调查表等22万余张，张贴公告11万余张，推送手机短信12万余条、微信1.3万余条；通过讲解黑恶势力犯罪的危害、认定范围、举报涉黑涉恶犯罪线索的方法、途径以及在开展扫黑除恶专项斗争中政法机关的职能作用和取得的成效，营造了良好的舆论氛围；同时，各地、各部门不断创新宣传方式，组织对公检法“三长”以及各旗县市区党委领导开展专题访谈，通过以案释法深化群众对扫黑除恶专项斗争的理解，适时加大了典型案例的宣传力度，激发和调动群众参与专项斗争的积极性。截至目前，全市累计播发各类宣传报道信息1360余条，逐批刊登市和各旗县领导署名文章24篇；借助“饿了吗”、“美团”等外卖平台，将扫黑除恶内容印在送餐袋上向群众宣传；在圆通、顺丰等450多辆快递小车上张贴宣传内容;在全市日均分发的12万多件包裹上粘贴举报方式；在中心城区2100多辆出租车上张贴宣传标识；举办28场“周末好声音”惠民演出，广泛宣传扫黑除恶专项斗争，切实提高了人民群众的知晓率和参与度；市扫黑办联合市委宣传部开展了扫黑除恶宣传进机关、进社区、进农村牧区等“七进”活动，以案释法，发动干部群众积极举报涉黑涉恶线索；市委政法委组织各相关单位，在集宁区的五个广场开展了扫黑除恶主题宣传活动，通过发放宣传单、组织节目表演，提高群众检举揭发黑恶犯罪的意识；市、旗县两级扫黑办与各地各部门联合，公布监督举报电话（8858858）、网站、邮箱，通过巡察督导、带案下访、领导接访等途径，广泛发动群众举报涉黑涉恶线索，联合邮政部门在各地人员密集的公共场所共设置15个涉黑涉恶举报专用信箱，进一步拓展了线索举报来源。市扫黑办、市中级人民法院、市人民检察院、市公安局联合印发了《关于敦促涉黑涉恶违法犯罪分子投案自首的通告》，市纪委监委印发了《关于敦促涉黑涉恶腐败及充当黑恶势力“保护伞”的党员干部和公职人员主动投案自首的通告》，进一步彰显了我市打击黑恶势力的坚定决心。', '我市高度重视中央、自治区督导反馈问题的整改工作，以督导促整改，以督导促实效。在扫黑除恶专项斗争工作开展期间，我市先后共经历4次中央及自治区扫黑除恶专项斗争督导工作，均圆满完成迎检工作。', '2019年1月，自治区扫黑除恶专项斗争第八督导组向我市反馈了督导期间的工作情况，提出了整改意见和建议。市委立即召开扫黑除恶专项斗争推进会和专题调度会，研究制定了《关于自治区扫黑除恶专项斗争第八督导组反馈意见的整改方案》（乌扫黑组发〔2019〕1号），建立了整改问题清单和整改工作推进表，围绕6个方面20个问题，制定了54项整改措施。针对督导组反馈意见中提到的个性问题，市扫黑办专门下发了14份点对点督办函，要求抓好整改、抓好落实、确保高标准、高质量全面完成整改任务，截至目前，自治区第八督导组反馈的问题都已整改完毕。', '2019年6月，中央扫黑除恶第15督导组第三下沉组反馈了我市在政治站位、依法严惩、深挖彻查、综合治理、组织建设、组织领导等6个方面存在的22个具体问题。市委、市政府研究出台了《乌兰察布市委办公室市人民政府办公室关于印发&lt;中央扫黑除恶第15督导组第三下沉组督导报告反馈问题整改方案&gt;的通知（乌党办发【2019】6号）》，各地各有关部门对照中央督导组指出的问题，立即制定了本地区、本部门、本系统整改方案，以及详细的整改措施，明确牵头领导、责任领导、责任人和完成期限。市委召开2次专题会，就加快线索案件办理进度、按时完成整改任务提出了明确意见；市委政法委先后召开3次“大三长”联席会议，就重点案件进行会商研究；召开5次专题调度会，听取了中央督导组交办二、三类线索办理情况，就加快核查进度提出明确要求，对加强重点行业专项整治、开展整改工作专项督导等工作进行了安排部署。截至目前，中央扫黑除恶第15督导组反馈的问题都已整改完毕。', '2019年11月，中央扫黑除恶第15督导组对自治区进行了为期10天的督导“回头看”，指出了涉及我市的28个问题。我市研究制定了《关于转发自治区扫黑除恶专项斗争领导小组&lt;中央扫黑除恶专项斗争督导“回头看”反馈问题整改方案&gt;的通知（乌扫黑组发【2020】1号）》，对中央扫黑除恶督导和“回头看”反馈意见进行再对标再研究，全面压实整改责任，推动我市扫黑除恶专项斗争取得新突破。截至目前，中央扫黑除恶第15督导组“回头看”反馈的问题都已整改完毕。', '2020年7月，自治区下发了《关于做好自治区扫黑除恶专项斗争督导“回头看”整改工作的通知》（内扫黑组通字〔2020〕5号），指出了我市6个方面存在的28个问题。我市高度重视，制定印发了《关于印发&lt;自治区扫黑除恶专项斗争督导“回头看”反馈意见整改方案&gt;的通知（乌扫黑组发[2020]5号）》，坚持目标导向、问题导向、效果导向，按照立行立改、举一反三、建章立制、长期坚持的原则，对督导“回头看”反馈问题进行了认真梳理汇总，明确整改措施，压实整改责任。截至目前，自治区扫黑除恶专项斗争督导“回头看”反馈的问题都已整改完毕。', '特别是2018年6月，市里对旗县委政法委、公安局、法院、检察院开展了为期1个月的提级交叉专项巡察。市扫黑办制定下发了《市委扫黑除恶专项巡察反馈意见整改任务分工方案》，推动被巡察部门落实整改任务。各旗县市区全部建立了问题清单积极整改，截至目前，五个方面13个问题已整改完毕。', '2020年7月，市扫黑除恶专项斗争领导小组抽组5个专项督导组，对11个旗县市区和市直15个重点行业部门扫黑除恶工作情况开展了实地督导。通过督导，进一步压实了各旗县市区主体责任和各成员单位监管责任。截至目前，督导组反馈的6个方面16个问题已整改完毕。']</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A36" t="n">
+        <v>33</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>乌兰察布市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>乌兰察布市</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>盘点下好一盘棋奏响协奏曲</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2021-12-29</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>https://www.wulanchabu.gov.cn/tpxw/47294.html</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>['“千钧将一羽，轻重在平衡。”坚持统筹协调发展，是促进经济社会发展行稳致远的“法宝”。 今年以来，乌兰察布将协调发展放在统筹全局的重要位置，正确处理发展中的重大关系，全面深化区域交流与协作，加快推动城乡区域协调发展，持续夯实基础设施建设水平，不断增强全市各个方面、各个领域发展的整体性、协调性，为推动实现高质量发展奠定了坚实基础。 突出区域联动 纵深推进务实合作 连南接北，左右逢源，是乌兰察布独特的区位优势。将区位优势转化为现实优势，始终是乌兰察布一以贯之坚持不懈的发展战略。 城乡协调发展使城市更宜居 | 段建宁 摄 “以服务国家、自治区区域发展为重点，加强与国内区域的全面战略合作，主动融入京津冀协同发展，推动呼包鄂乌一体化发展，深化蒙晋冀合作，积极对接长三角经济区、粤港澳大湾区、中原经济区、环渤海经济圈，促进我市与周边区域共同发展。”乌兰察布市“十四五”规划中擘画了深化国内区域合作的宏伟蓝图，给全市高质量发展带来历史机遇。 迈上社会主义现代化建设新征程，乌兰察布的发展如何与国家同步、与时代同行？带着这些问题，10月18日至20日，市委书记隋维钧，市委副书记、市长奇飞云率领乌兰察布市党政代表团赴北京市学习考察，就“十四五”时期京蒙协作进行深入对接，共同谋划“十四五”时期京蒙协作工作。通过学习北京，对标先进，寻求解开乌兰察布高质量发展的“密码”。 这是全市第五次党代会胜利闭幕之后，新一届市委首次高规格出区考察学习。从企业到园区，从工业到农业，从城市建设到科技创新，东城区、房山区、平谷区、怀柔区、大兴区、延庆区、朝阳区……3天有限的时间里，代表团马不停蹄、争分夺秒，一路看、一路议、一路思、一路悟，真切感受到了北京市朝气蓬勃的发展态势，同时也进一步增添了乌兰察布逐梦前行的信心、决心。 乌兰察布与京津冀地区地缘相近、人缘相近，交往交流源远流长，友好合作成果丰硕。近年来，借助京津冀地区的资源优势，三峡现代能源产业园、 乌兰察布宏福现代农业产业园、乌兰察布市四子王旗杜蒙肉羊产业园区等一大批产业园区相继落户乌兰察布，马铃薯加工企业薯都凯达、肉羊加工企业东来顺、生猪养殖企业大北农、净菜加工企业康安利丰等优质农畜产品生产加工企业纷纷在乌兰察布投资建厂。 积极参与京津冀协同发展，不仅为乌兰察布带来了资金、带来了项目、带来了人才、带来了市场，而且极大促进了乌兰察布市经济社会发展和边疆民族地区干部群众思想大解放、观念大更新、作风大转变，为全市高质量打赢打好脱贫攻坚战发挥了关键作用，作出了重要贡献。 与此同时，乌兰察布把握京津冀、长三角、粤港澳等地区产业转移契机，先后赴北京、天津、上海、江苏、浙江、广东、海南、陕西、宁夏等地拜访考察了深圳尚荣医疗、深圳东部华侨城等70余家大型企业，接待了中电投融和融资、中船重工、微软中国有限公司等120余家知名企业，并引进一批技术成熟、销售稳定的行业龙头，签约了上海电气、世纪互联、中车电机和远景零碳产业园等一批好项目。截至10月底，全市招商引资签约项目70项，总投资1307.7亿元，同比增长15.5%；开复工项目225项，总投资1781.5亿元，同比增长16.2%。 2021年是“十四五”规划开局之年，也是呼包鄂乌四市由协同发展向一体化高质量发展迈进的起步年。 11月9日，内蒙古自治区《呼包鄂乌“十四五”一体化发展规划》出台，正式将乌兰察布市纳入一体化发展范围。经过多年的努力，四市正在从打基础、建机制、寻突破的协同发展阶段向一体化高质量发展的新阶段迈进。 截至目前， 乌兰察布已与呼包鄂三市实现公交支付同网； “两客一危”车辆已全部接入内蒙古道路运输动态监管平台； 已建成国家重点污染源自动监控与基础数据库系统、污染源视频监控系统； 积极配合推动“一部手机游呼包鄂乌”，已完成手绘地图、导游导览等工作； 161项政务服务事项实现“互办互认”。 突出城乡协调 建设美丽宜居城镇 文明，是一座城市进步的标志，是一座城市发展的灵魂，更是一座城市亮丽的底色。 志愿服务助推文明城市创建 | 唐璇博 摄 对于奔跑中的乌兰察布来说，创建全国文明城市，努力摘取这个反映一座城市物质文明与精神文明协调发展水平的最高荣誉称号，不仅可以助推城市高质量发展，更是回应了人民群众对美好生活的殷切期待。 创建全国文明城市是一次大考，比拼的是勇气，考验的是担当。 今年，是新一轮全国文明城市创建周期起始之年。年初，乌兰察布市创建第七届全国文明城市动员召开，向全市吹响了创建全国文明城市的嘹亮号角。截至目前，全市累计开展全民健身、全民阅读、乌兰牧骑进万家等各类精神文明创建行动4500余场，参与志愿者7万人次，覆盖群众32万人；开展“我帮你”系列志愿服务活动900多场，服务群众20多万人次；开展“小手拉大手、文明进校园”活动，取缔20余处校园周边娱乐场所…… “现在连5岁小孩都会背社会主义核心价值观，知道要自觉遵守交通秩序，垃圾要扔在垃圾桶，维护我们美好的生活环境。”“我们的环境越美越干净了，城市变化翻天覆地，受惠最大的还是咱老百姓！”“确实变化大，原来小区里的乱搭乱盖建筑，现在都清除干净了，我们住在这里都觉得很舒心。”“幸福感、获得感”是城市文明创建的试金石。对百姓来说，身边的美好变化才是增强幸福感的“源泉”。 以创建全国文明城市为契机，推进老旧小区改造，使城市面貌、城市功能、城市形象得到显著提升，让市民享有更多安全感、获得感、幸福感，是乌兰察布市委、市政府向全市人民作出的郑重承诺。 老旧小区改造提升市民幸福指数 | 本报记者 张晓鹏 摄 2021年，乌兰察布市城镇老旧小区改造任务共涉及9个旗县市区、122个小区、9009户、89.65万平方米，截至目前，所有改造任务已全面开工进行改造，完成投资额8100万元。同时，完成道路及背街小巷维修90余条，维修便道砖和路面坑洼38.9万平方米，补植行道树2995株，施划停车位8300余个。 “我在这里居住了10多年了，原来我们交水费也没有固定地点，是由小区居民轮流代收。我家住在一楼，由于下水管道年久待更换，下水很容易就堵了，每年得居民自己出钱清挖四五次，这次改造不但要给小区地上硬化，地下还给重新铺设新管道，对此次改造我们也是充满了期待。”得益于老旧小区改造，皮毛商城小区的历史“顽疾”即将得到彻底“根治”，居民李英高兴地说。 接下来，作为申报自治区示范项目的皮毛商城小区将进行全面“升级换代”，既改外露的“面子”，也改惠民的“里子”，改造后的小区无论从居住条件和居住质量上都将有质的飞跃。 如今，乌兰察布的背街小巷、老旧小区环境优美、文明有序，成为该市创建全国文明城市、提升城市精气神的亮丽名片。 突出均衡完善 提升基础设施水平 路是制约农村发展、乡村振兴的关键。俗话说“要想富，先修路”，乡村要快速发展，农民要奔向幸福，公路建设就必须得跟上。一条路，是农村通向外界的纽带，更是农民通向富裕幸福的金桥。 今年以来，乌兰察布市继续加快农村公路建设，加大资金投入，建立保障机制，充分发挥农村公路在巩固脱贫攻坚成果、推进乡村振兴战略的先行保障作用，以更高要求更实措施高质量推进“四好农村路”建设，致力于把农村公路建设成党和群众的“连心路”，铺就乡村振兴“快车道”。截至目前，全市农村公路项目累计完成投资4.2亿元，其中：兴和县苏木山旅游路（黑土台至十二号段）、四子王旗格根塔拉至红格尔苏木公路、商都县七台镇至大黑沙土公路3个续建项目和化德县至毛不拉二级公路路面改造工程已建成通车。 “没修这个路之前，简直就不能走，坑坑洼洼的，有时候下点雨啦雪啦，门都出不去。自从旗里帮我们修好了路，农副产品都能运到外面，到了冬天，运煤的、收粮的也能进来啦，生活条件也好了。”一场大雪过后，察右后旗贲红镇高玉梁村的谢风俊老人一大早就来到村委会门前，清扫道路上的积雪。谈及修路后带来的变化，老人脸上洋溢着幸福的笑容。 路畅了，车通了，农村牧区特色产业也随之兴旺起来。格根塔拉草原、红召九龙湾景区、林胡古塞景区、苏木山森林公园等旅游产业焕发出勃勃生机；商都县东坊子村的马铃薯产业、化德县民乐村的蔬菜产业等逐渐发展壮大；G335国道察右中旗段、四子王旗乌兰花镇至艾勒格庙段旅游公路风景迷人，行人走到这里，犹如走进画中……一条条农村公路犹如一道道特色鲜明的“经济走廊”，让乌兰察布的农村更强、农民更富、乡村更美。 在解决农村牧区出行难的同时，乌兰察布市还在千方百计改善农村牧区饮用水安全问题。 兴和县赛乌素镇曹家村的村民杨花还记得几年前缺水的日子：“前几年，村子里打上来的水泛着红色，有异味，烧开水后，锅里有白色水垢，作为饮用水，人们总感觉有些不卫生。”令村民们担忧的问题，伴随着村里水处理房的投用迎刃而解。“现在的水清澈见底，没有异味。你看锅里烧开的水都没有水垢了，从根儿上解决了我们的饮水问题，谢谢党和政府。”杨花指了指家中的铁锅激动地说。 从“有水喝”到“喝好水”，乌兰察布市农村安全饮水工程实现了从“面的覆盖”迈向“质的提升”，成为群众受益最直接、受益人口最广的民心工程之一。2021年，为了巩固脱贫攻坚成果与乡村振兴有效衔接，乌兰察布市落实了2021年农村牧区供水保障工程项目，自治区下达脱贫攻坚与乡村振兴有效衔接资金2835万元。第一批投资785万元，实施项目21项，完工19项，其余两项正在招投标，明年6月底完成。第二批投资2050万元，实施项目19项，将于年底前完成招投标，明年完成建设任务。同时，对734处饮水安全工程进行维修养护，目前已完成734处。 不谋全局者，不足谋一域。乌兰察布市第五次党代会报告中强调，要把统筹协调作为推动高质量发展的重要抓手，在扬长补短中增强发展后劲，在协调发展中拓宽发展空间，推动区域协调、城乡一体，不断增强发展的整体性和协调性。 蓝图已经绘就 奋斗正当其时 做好统筹协调“大文章” 下好区域协调发展“一盘棋” 真正解决发展中 不平衡、不协调、不可持续的问题 让改革发展成果 更多更公平惠及于民 不断满足人民日益增长的 美好生活需要 一幅统筹协调发展的恢宏画卷 正在乌兰察布大地 绽放新的精彩', '连南接北，左右逢源，是乌兰察布独特的区位优势。将区位优势转化为现实优势，始终是乌兰察布一以贯之坚持不懈的发展战略。', '“以服务国家、自治区区域发展为重点，加强与国内区域的全面战略合作，主动融入京津冀协同发展，推动呼包鄂乌一体化发展，深化蒙晋冀合作，积极对接长三角经济区、粤港澳大湾区、中原经济区、环渤海经济圈，促进我市与周边区域共同发展。”乌兰察布市“十四五”规划中擘画了深化国内区域合作的宏伟蓝图，给全市高质量发展带来历史机遇。', '迈上社会主义现代化建设新征程，乌兰察布的发展如何与国家同步、与时代同行？带着这些问题，10月18日至20日，市委书记隋维钧，市委副书记、市长奇飞云率领乌兰察布市党政代表团赴北京市学习考察，就“十四五”时期京蒙协作进行深入对接，共同谋划“十四五”时期京蒙协作工作。通过学习北京，对标先进，寻求解开乌兰察布高质量发展的“密码”。', '这是全市第五次党代会胜利闭幕之后，新一届市委首次高规格出区考察学习。从企业到园区，从工业到农业，从城市建设到科技创新，东城区、房山区、平谷区、怀柔区、大兴区、延庆区、朝阳区……3天有限的时间里，代表团马不停蹄、争分夺秒，一路看、一路议、一路思、一路悟，真切感受到了北京市朝气蓬勃的发展态势，同时也进一步增添了乌兰察布逐梦前行的信心、决心。', '乌兰察布与京津冀地区地缘相近、人缘相近，交往交流源远流长，友好合作成果丰硕。近年来，借助京津冀地区的资源优势，三峡现代能源产业园、 乌兰察布宏福现代农业产业园、乌兰察布市四子王旗杜蒙肉羊产业园区等一大批产业园区相继落户乌兰察布，马铃薯加工企业薯都凯达、肉羊加工企业东来顺、生猪养殖企业大北农、净菜加工企业康安利丰等优质农畜产品生产加工企业纷纷在乌兰察布投资建厂。', '积极参与京津冀协同发展，不仅为乌兰察布带来了资金、带来了项目、带来了人才、带来了市场，而且极大促进了乌兰察布市经济社会发展和边疆民族地区干部群众思想大解放、观念大更新、作风大转变，为全市高质量打赢打好脱贫攻坚战发挥了关键作用，作出了重要贡献。', '与此同时，乌兰察布把握京津冀、长三角、粤港澳等地区产业转移契机，先后赴北京、天津、上海、江苏、浙江、广东、海南、陕西、宁夏等地拜访考察了深圳尚荣医疗、深圳东部华侨城等70余家大型企业，接待了中电投融和融资、中船重工、微软中国有限公司等120余家知名企业，并引进一批技术成熟、销售稳定的行业龙头，签约了上海电气、世纪互联、中车电机和远景零碳产业园等一批好项目。截至10月底，全市招商引资签约项目70项，总投资1307.7亿元，同比增长15.5%；开复工项目225项，总投资1781.5亿元，同比增长16.2%。', '2021年是“十四五”规划开局之年，也是呼包鄂乌四市由协同发展向一体化高质量发展迈进的起步年。', '11月9日，内蒙古自治区《呼包鄂乌“十四五”一体化发展规划》出台，正式将乌兰察布市纳入一体化发展范围。经过多年的努力，四市正在从打基础、建机制、寻突破的协同发展阶段向一体化高质量发展的新阶段迈进。', '对于奔跑中的乌兰察布来说，创建全国文明城市，努力摘取这个反映一座城市物质文明与精神文明协调发展水平的最高荣誉称号，不仅可以助推城市高质量发展，更是回应了人民群众对美好生活的殷切期待。', '今年，是新一轮全国文明城市创建周期起始之年。年初，乌兰察布市创建第七届全国文明城市动员召开，向全市吹响了创建全国文明城市的嘹亮号角。截至目前，全市累计开展全民健身、全民阅读、乌兰牧骑进万家等各类精神文明创建行动4500余场，参与志愿者7万人次，覆盖群众32万人；开展“我帮你”系列志愿服务活动900多场，服务群众20多万人次；开展“小手拉大手、文明进校园”活动，取缔20余处校园周边娱乐场所……', '“现在连5岁小孩都会背社会主义核心价值观，知道要自觉遵守交通秩序，垃圾要扔在垃圾桶，维护我们美好的生活环境。”“我们的环境越美越干净了，城市变化翻天覆地，受惠最大的还是咱老百姓！”“确实变化大，原来小区里的乱搭乱盖建筑，现在都清除干净了，我们住在这里都觉得很舒心。”“幸福感、获得感”是城市文明创建的试金石。对百姓来说，身边的美好变化才是增强幸福感的“源泉”。', '以创建全国文明城市为契机，推进老旧小区改造，使城市面貌、城市功能、城市形象得到显著提升，让市民享有更多安全感、获得感、幸福感，是乌兰察布市委、市政府向全市人民作出的郑重承诺。', '“我在这里居住了10多年了，原来我们交水费也没有固定地点，是由小区居民轮流代收。我家住在一楼，由于下水管道年久待更换，下水很容易就堵了，每年得居民自己出钱清挖四五次，这次改造不但要给小区地上硬化，地下还给重新铺设新管道，对此次改造我们也是充满了期待。”得益于老旧小区改造，皮毛商城小区的历史“顽疾”即将得到彻底“根治”，居民李英高兴地说。', '接下来，作为申报自治区示范项目的皮毛商城小区将进行全面“升级换代”，既改外露的“面子”，也改惠民的“里子”，改造后的小区无论从居住条件和居住质量上都将有质的飞跃。', '如今，乌兰察布的背街小巷、老旧小区环境优美、文明有序，成为该市创建全国文明城市、提升城市精气神的亮丽名片。', '路是制约农村发展、乡村振兴的关键。俗话说“要想富，先修路”，乡村要快速发展，农民要奔向幸福，公路建设就必须得跟上。一条路，是农村通向外界的纽带，更是农民通向富裕幸福的金桥。', '今年以来，乌兰察布市继续加快农村公路建设，加大资金投入，建立保障机制，充分发挥农村公路在巩固脱贫攻坚成果、推进乡村振兴战略的先行保障作用，以更高要求更实措施高质量推进“四好农村路”建设，致力于把农村公路建设成党和群众的“连心路”，铺就乡村振兴“快车道”。截至目前，全市农村公路项目累计完成投资4.2亿元，其中：兴和县苏木山旅游路（黑土台至十二号段）、四子王旗格根塔拉至红格尔苏木公路、商都县七台镇至大黑沙土公路3个续建项目和化德县至毛不拉二级公路路面改造工程已建成通车。', '“没修这个路之前，简直就不能走，坑坑洼洼的，有时候下点雨啦雪啦，门都出不去。自从旗里帮我们修好了路，农副产品都能运到外面，到了冬天，运煤的、收粮的也能进来啦，生活条件也好了。”一场大雪过后，察右后旗贲红镇高玉梁村的谢风俊老人一大早就来到村委会门前，清扫道路上的积雪。谈及修路后带来的变化，老人脸上洋溢着幸福的笑容。', '路畅了，车通了，农村牧区特色产业也随之兴旺起来。格根塔拉草原、红召九龙湾景区、林胡古塞景区、苏木山森林公园等旅游产业焕发出勃勃生机；商都县东坊子村的马铃薯产业、化德县民乐村的蔬菜产业等逐渐发展壮大；G335国道察右中旗段、四子王旗乌兰花镇至艾勒格庙段旅游公路风景迷人，行人走到这里，犹如走进画中……一条条农村公路犹如一道道特色鲜明的“经济走廊”，让乌兰察布的农村更强、农民更富、乡村更美。', '兴和县赛乌素镇曹家村的村民杨花还记得几年前缺水的日子：“前几年，村子里打上来的水泛着红色，有异味，烧开水后，锅里有白色水垢，作为饮用水，人们总感觉有些不卫生。”令村民们担忧的问题，伴随着村里水处理房的投用迎刃而解。“现在的水清澈见底，没有异味。你看锅里烧开的水都没有水垢了，从根儿上解决了我们的饮水问题，谢谢党和政府。”杨花指了指家中的铁锅激动地说。', '从“有水喝”到“喝好水”，乌兰察布市农村安全饮水工程实现了从“面的覆盖”迈向“质的提升”，成为群众受益最直接、受益人口最广的民心工程之一。2021年，为了巩固脱贫攻坚成果与乡村振兴有效衔接，乌兰察布市落实了2021年农村牧区供水保障工程项目，自治区下达脱贫攻坚与乡村振兴有效衔接资金2835万元。第一批投资785万元，实施项目21项，完工19项，其余两项正在招投标，明年6月底完成。第二批投资2050万元，实施项目19项，将于年底前完成招投标，明年完成建设任务。同时，对734处饮水安全工程进行维修养护，目前已完成734处。', '不谋全局者，不足谋一域。乌兰察布市第五次党代会报告中强调，要把统筹协调作为推动高质量发展的重要抓手，在扬长补短中增强发展后劲，在协调发展中拓宽发展空间，推动区域协调、城乡一体，不断增强发展的整体性和协调性。']</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>内蒙古省</t>
-        </is>
+      <c r="A37" t="n">
+        <v>33</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>乌兰察布市</t>
+          <t>内蒙古省</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>乌兰察布市</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>筑巢引凤栖花开蝶自来</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>2021-04-22</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>https://www.wulanchabu.gov.cn/jrwlcb/28667.html</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>['营商环境是衡量一个地区高质量发展的试金石。如何让企业“一见倾心”扎根成长，如何激发干事创业激情打造一方热土，作为年轻、时尚、创新的乌兰察布在优化营商环境上出实招、放大招，打出一系列行之有效的“组合拳”，用实干给出有力答案，有效推动“放管服”改革向更深层次、更广领域开展，进一步构筑营商环境“引力场”，助推我市经济社会高质量发展。', '放眼未来，我市正以培育市场主体、改善企业对政府服务满意度、解决老百姓办事难为目标，大力度下放行政职权，优化审批流程，主动上门服务企业、服务项目，坚决整治“中梗阻”，推动营商环境建设取得新突破，全力打造营商环境建设新“高地”。', '优化营商环境，激发经济活力，是推动高质量发展的必由之路，是解决经济社会发展薄弱环节、加快实现追赶超越的迫切要求。', '按照市委四届九次全会部署要求，我市将2020年确定为“营商环境作风整治年”和“全员招商年”，着力解决企业反响强烈、群众反映集中、社会普遍关注的作风顽疾，坚决查处侵害群众利益、损害党和政府形象、破坏发展环境的人和事，推进思想观念加快转变、党风政风持续好转、营商环境明显改善、法治环境不断优化，营造风清气正、主动担当的良好政治生态，着力改变乌兰察布落后现状，为促进经济高质量发展提供坚强保障。', '“问需于企、问计于企”是优化提升营商环境工作的有效抓手。市委、市政府先后出台了《乌兰察布市进一步优化营商环境工作方案》，印发了《乌兰察布市优化营商环境重点任务及责任分工》，推动建立了全市34个部门参与的优化营商环境联席会议制度，进一步理顺了全市优化营商环境工作机制。同时，不断加强问题梳理与整改，制定了《乌兰察布市优化营商环境工作“三张清单”》，使我市优化营商环境工作得到社会各方面认可。', '年初，受疫情影响，我市中小企业面临着严峻考验。如何帮助企业在逆境中走出一条发展之路，我市各级各部门做出多项举措。按照《内蒙古自治区人民政府关于支持防控疫情重点保障企业和受疫影响生产经营困难中小企业健康发展政策措施的通知》要求，市相关部门结合实际从优化审批服务、加大财政支持、减轻企业负担、加强经济运行调度等方面，牵头起草出台了七条具体措施，用实际行动，保障我市重点企业正常生产经营，解决了受疫情影响较大的中小微企业生产经营困难。其次全市上下认真贯彻落实国家和自治区各项减税降费政策，并对防控疫情重点保障企业和受疫情影响暂时出现经营困难的中小企业，实行用电、用气、用水等“欠费不停供”，疫情结束3个月内及时补缴相关欠费，不收滞纳金等措施，助推中小微企业在疫情期间正常运行。', '2020年，我市把提高行政审批效率作为优化营商环境的重头戏，组织开展重大项目“集中审批周”活动，对99家企业申报的141个项目、涉及184项申报事项进行了审批，项目总投资763.5亿元，已办结事项171项，办结率达90%以上。', '良好的社会氛围同样有助于优化营商环境的构建，各相关部门通过报纸、电视、微信公众号等主流媒体，出租车、公交车显示屏，户外宣传活动等多种形式广泛进行了《优化营商环境条例》及诚信宣传教育活动，市直成员单位、集宁区有关部门、50余个诚信企业、商协会代表参加了活动，并制作展板200多块，现场发放《优化营商环境条例》等各类法律法规5万多份。活动还向企业宣传优化提升营商环境的工作新成效和惠企新政策，详细介绍了在乌兰察布投资、生产、经营过程中，企业开办注销、建设项目审批、办理不动产登记、纳税服务、跨境投资贸易、企业降本减负、涉企政务服务等方面的优惠政策和承诺时限，让每一户企业都能在乌兰察布这块沃土上放心投资、安心经营、专心发展。', '只有最大限度释放改革红利，才能推动营商环境不断优化。一年来，乌兰察布以落实“简政放权要彻底、政务服务要阳光、降本减负要实效、政商关系要亲清”四大任务为重点，充分发挥政府的主观能动作用，以主动服务、优质服务让群众舒心、企业顺心，全力推进优化提升营商环境工作再上新台阶。', '为此，我市以“最多跑一次”改革为重点撬动各方面各领域改革。市政务服务局坚持以深化“放管服”改革为有力抓手，以更快更好方便企业群众办事创业为导向，认真履行综合协调职责，督促各地各部门按照深化“放管服”改革优化营商环境重点任务分工，通过取消、下放、合并、执法重心下移等方式，深入推进“一网、一门、一次”改革和“最多跑一次”改革，实现了网上可办率达90%，在自治区政务服务移动端“蒙速办”APP上部署特色应用29项。实体大厅服务质效不断提升，“互联网+监管”工作稳步推进，企业代办帮办队伍得到建设，呼包鄂乌政务服务事项互办互认工作协同推进，乡村党群服务中心标准化建设持续巩固提升……', '2020年6月和10月，我市积极组织全市优化营商环境联席会议成员单位分别先后前往鄂尔多斯市、浙江省衢州市考察学习优化营商环境典型经验做法，通过深入系统的学习，相关部门工作人员对优化营商环境的认识水平与业务能力得到有效提高。举办讲座、聘请专家，对市直单位和11个旗县市区共计1100余人就解读国家营商环境评价指标体系相关内容、营商环境评价方式以及优化营商环境的意义和经验做法进行培训。', '近年来，乌兰察布市领导干部恪守“亲”“清”二字，公私分明、坦荡真诚，主动当好亲商、富商、安商的“店小二”，将优化提升营商环境当作是一场刀刃向内的自我革命，坚决处理不作为、乱作为、服务意识淡薄、吃拿卡要等行为，并向企业郑重承诺：在乌兰察布不需要“找关系”“托人情”。市委、市政府会全力支持、全力配合、全力服务遵纪守法的企业，光明正大搞经营，让“马上就办”成为公务人员的自觉和常态。从企业需求出发，提供有效率的服务、有温度的服务，让广大企业在创业创新的道路上走得自信而坚定。', '去年以来，凉城县以企业和群众满意为目标，坚持在服务上做“加法”，在审批上做“减法”，持续深化“放管服”、“一次办好”改革，通过打造以党员干部做先锋的“帮办代办”队伍，努力创造优良的营商环境，打通服务企业群众“最后一公里”。', '化德县不断深化“放管服”改革，重点围绕营造公平竞争的市场环境、提升高效便捷的政务服务环境、完善精准有效的政策环境、健全平等保护的法治环境“四项举措”，着力提升政务服务水平，不断促进营商环境持续改善提升。', '集宁区全力构建高效透明的政务环境，多部门组合拳持续发力，简化办理流程，完善服务体系，以跑起来的姿态擦亮营商环境“金字招牌”，为我市经济社会高质量发展按下“加速键”。', '“现在太方便了，自治区内跨盟市户口迁移可以‘一站式’办理，这要是以前，需要在集宁区办理迁入，然后再带着开具的准迁证回到巴彦淖尔市办理迁出。来回奔波，劳心费力还耽误工作。”对于自治区跨盟市户口迁移“一站式”服务，来自巴彦淖尔市的尚女士连连夸赞。', '市民赵先生驾车经过集宁区虎山巷与虎山馨苑南侧通道交叉路口时发生碰撞，随即拨打了报警电话。接到电话后，正在巡逻的人保“警保联动”巡查人员立即赶往现场，到达现场后，巡查人员对现场进行拍照，并通过“交管12123”APP将照片上传，之后当事人就可以挪车了，挪车后可前往集宁区城市交通指挥中心快处快赔中心领取事故责任书。这一过程仅仅用了十分钟。', '“开办企业审批更快了”“缴水费电费燃气费更方便了”“有难事拨打12345政府服务热线就能解决”……这一句句来自企业和群众的真诚评价的背后，是我市持续优化营商环境取得的成效。', '一系列政策的出台，一件件实在的便民措施，彰显了我市优化营商环境的力度和决心。今日之乌兰察布，正在全力构建高效透明的政务环境，营造完备优质的企业经营环境和充满活力的人才环境，且已取得阶段性成果。良好的营商环境已转化为加快发展的现实生产力，推动着我市在振兴发展中一路前行。', '优化提升营商环境，推动新一轮发展，乌兰察布正在以更坚定的决心和更大的魄力，披荆斩棘，勇往直前，让营商“软”环境培育发展“硬”实力，激发起企业创业创新的热情与活力，汇聚起支撑经济高质量发展的动力与合力。']</t>
         </is>
